--- a/output/v3/result - comparison_v3.xlsx
+++ b/output/v3/result - comparison_v3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="110">
   <si>
     <t>Case Name</t>
   </si>
@@ -249,7 +249,13 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Scroll down to make the </t>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The "</t>
     </r>
     <r>
       <rPr>
@@ -267,18 +273,24 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> button visible, then click on it.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>The "</t>
+      <t>" (Close) button is located at the bottom right corner of the search and replace dialog box. You can click it directly.</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Case 73.1</t>
+  </si>
+  <si>
+    <t>input\image\16.png</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Scroll down and click the </t>
     </r>
     <r>
       <rPr>
@@ -296,24 +308,18 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t>" (Close) button is located at the bottom right corner of the search and replace dialog box. You can click it directly.</t>
-    </r>
-  </si>
-  <si>
-    <t>Test Case 73.1</t>
-  </si>
-  <si>
-    <t>input\image\16.png</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Scroll down and click the </t>
+      <t xml:space="preserve"> button.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">It looks like the </t>
     </r>
     <r>
       <rPr>
@@ -331,40 +337,17 @@
         <rFont val="Calibri"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> button.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">It looks like the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>关闭</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve"> button might be hidden. Try scrolling down in the window to see if it becomes visible. Once you see it, click it.</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">It looks like the </t>
     </r>
     <r>
@@ -542,6 +525,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>To make the "</t>
     </r>
     <r>
@@ -623,6 +612,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Scroll down to see if the "</t>
     </r>
     <r>
@@ -752,6 +747,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t>Based on the Excel screenshot showing a "</t>
     </r>
     <r>
@@ -922,6 +923,1572 @@
 ]
 The coordinates represent the top-left (x1, y1) and bottom-right (x2, y2) corners of each button.s bounding box. These buttons appear at the bottom of the "Change Branch" dialog window.</t>
   </si>
+  <si>
+    <t>Test Case 48</t>
+  </si>
+  <si>
+    <t>Concept Analyzer</t>
+  </si>
+  <si>
+    <t>text recognition in Excel image/OCR</t>
+  </si>
+  <si>
+    <t>input\image\6.png</t>
+  </si>
+  <si>
+    <t>Show me the json data for all the tables in the image with table name, table attributes, table values</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>[
+    {
+        "table": "Current Users Summary",
+        "attributes": [
+            "User Id",
+            "Home Branch",
+            "Current Branch"
+        ],
+        "values": [
+            [
+                "FCUBS001",
+                "000",
+                "000"
+            ],
+            [
+                "ARUNR1",
+                "000",
+                "000"
+            ],
+            [
+                "GSK001",
+                "000",
+                "000"
+            ],
+            [
+                "INFRA3",
+                "001",
+                "001"
+            ],
+            [
+                "ANSI12",
+                "000",
+                "000"
+            ]
+        ]
+    },
+    {
+        "table": "Function Description",
+        "attributes": [
+            "Function Id",
+            "Module",
+            "Description"
+        ],
+        "values": [
+            [
+                "AMSCAONL",
+                "FC",
+                "Corporate Manual"
+            ],
+            [
+                "AMSCDEFN",
+                "FC",
+                "Charge Definition"
+            ],
+            [
+                "AMSFNONL",
+                "FC",
+                "Fund Summary"
+            ],
+            [
+                "AMSFNPRD",
+                "FC",
+                "Asset Managemen"
+            ],
+            [
+                "AMSPRPCL",
+                "FC",
+                "Fund Product Prefe"
+            ]
+        ]
+    },
+    {
+        "table": "User Alerts",
+        "attributes": [
+            "User ID",
+            "Sequence Number",
+            "Alert Type"
+        ],
+        "values": [
+            [
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31581401</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>315814011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+                "A"
+            ],
+            [
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31581404</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>315814042</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+                "O"
+            ],
+            [
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31581401</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>315814013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+                "A"
+            ],
+            [
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31581404</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>315814044</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+                "O"
+            ],
+            [
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31581401</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+                "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>315814015</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+                "A"
+            ]
+        ]
+    },
+    {
+        "table": "User Role Account Class",
+        "attributes": [
+            "Role Id",
+            "Account Class"
+        ],
+        "values": []
+    },
+    {
+        "table": "User Roles",
+        "attributes": [
+            "Role Description",
+            "Branches Allowed",
+            "Account Class"
+        ],
+        "values": [
+            [
+                "FUNDS TRANSFER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> TXI D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">",
+                "D",
+                "D"
+            ],
+            [
+                "FUNDS TRANSFER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>TXI D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+                "D",
+                "D"
+            ],
+            [
+                "FUNDS TRANSFER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> TXI D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+                "D",
+                "D"
+            ],
+            [
+                "Foreign Exchange Batcl D",
+                "D",
+                "D"
+            ],
+            [
+                "Foreign Exchange Main D",
+                "D",
+                "D"
+            ]
+        ]
+    },
+    {
+        "table": "Module Dashboard Summary",
+        "attributes": [
+            "Mod Id",
+            "Module Description"
+        ],
+        "values": [
+            [
+                "AC",
+                "Accounting"
+            ],
+            [
+                "AE",
+                "Auto End of Day"
+            ],
+            [
+                "AM",
+                "Asset Management"
+            ],
+            [
+                "BC",
+                "Bills and Collections"
+            ],
+            [
+                "BL",
+                "Billing"
+            ]
+        ]
+    }
+]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>```json
+{
+  "tables": [
+    {
+      "name": "Current Users Summary",
+      "attributes": ["User Id", "Home Branch", "Current Branch"],
+      "values": [
+        ["FCUBS001", "000", "001"],
+        ["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ARUN01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>", "000", "001"],
+        ["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ARUN02</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>", "000", "001"],
+        ["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>NIFRA3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>", "001", "001"],
+        ["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ANIS12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>", "001", "001"]
+      ]
+    },
+    {
+      "name": "Function Description",
+      "attributes": ["Function Id", "Module", "Description"],
+      "values": [
+        ["AMSCAMONL", "FC", "Corporate Admin"],
+        ["AMSDEFNL", "FC", "Charge Definition"],
+        ["AMSFINL", "FC", "Asset Management"],
+        ["AMSFNPRD", "FC", "Asset Product"],
+        ["AMSFPRCL", "FC", "Fund Product Pref"]
+      ]
+    },
+    {
+      "name": "User Alerts",
+      "attributes": ["User ID", "Sequence Number", "Alert Type"],
+      "values": [
+        [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"31681401", "315814014</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>", "D"],
+        ["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31681401", "315814013</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>", "A"],
+        [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"31681401", "315814012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>", "D"],
+        [</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"31681401", "315814015"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">, "A"]
+      ]
+    },
+    {
+      "name": "User Role Account Class",
+      "attributes": ["Role Id", "Account Class"],
+      "values": []
+    },
+    {
+      "name": "User Roles",
+      "attributes": ["Role Description", "Branches Allowed", "Account Class"],
+      "values": [
+        ["FUNDS TRANSFER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Txn D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">", "D", "D"],
+        ["FUNDS TRANSFER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Txn D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">", "D", "D"],
+        ["FUNDS TRANSFER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Txn D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">", "D", "D"],
+        ["FUNDS TRANSFER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Txn D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">", "D", "D"],
+        ["Foreign Exchange </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Main D</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>", "D", "D"]
+      ]
+    },
+    {
+      "name": "Module Dashboard Summary",
+      "attributes": ["Module Id", "Module Description"],
+      "values": [
+        ["AC", "Accounting"],
+        ["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>AD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Auto EOD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"],
+        ["AM", "Asset Management"],
+        ["BC", "Bills and Collections"],
+        ["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>CL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Collateral</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"]
+      ]
+    }
+  ]
+}
+```</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Here’s a JSON representation of the tables visible in the image:
+```json
+{
+  "tables": [
+    {
+      "table_name": "Current Users Summary",
+      "attributes": ["User Id", "Home Branch", "Current Branch"],
+      "values": [
+        ["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>FCU50100", "001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>", "000"],
+        ["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ARUNR01</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>", "000"],
+        ["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>INFRA32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>", "001", "001"],
+        ["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ASIN12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>", "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>", "001"]
+      ]
+    },
+    {
+      "table_name": "User Alerts",
+      "attributes": ["User ID", "Sequence Number", "Alert Type"],
+      "values": [
+        ["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31681401</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>", "1", "A"],
+        ["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31681401</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>", "2", "D"],
+        ["</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>31681401</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">", "3", "A"]
+      ]
+    },
+    {
+      "table_name": "User Role Account Class",
+      "attributes": ["Role Id", "Account Class"],
+      "values": [
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  ["Role1", "Account1"],
+        ["Role2", "Account2"]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+      ]
+    },
+    {
+      "table_name": "User Roles",
+      "attributes": ["Role Description", "Branches Allowed", "Account Class"],
+      "values": [
+        ["FUNDS TRANSFER TxD", "D", "D"],
+        ["FUNDS TRANSFER TxD", "D", "D"],
+        ["Foreign Exchange Main D", "D", "D"]
+      ]
+    },
+    {
+      "table_name": "Module Dashboard Summary",
+      "attributes": ["Module Id", "Module Description"],
+      "values": [
+        ["AC", "Accounting"],
+        ["AD", "Auto of Day"],
+        ["AM", "Asset Management"],
+        ["BC", "Bills and Collections"]
+      ]
+    }
+  ]
+}
+```
+This JSON structure captures the tables, their attributes, and values as seen in the image. Adjust the values as necessary based on the actual data in the image.</t>
+    </r>
+  </si>
+  <si>
+    <t>{
+  "tables": [
+    {
+      "name": "Current Users Summary",
+      "attributes": [
+        "User Id",
+        "Home Branch",
+        "Current Branch"
+      ],
+      "values": [
+        [
+          "FCU8501",
+          "000",
+          "000"
+        ],
+        [
+          "ARUN01",
+          "000",
+          "001"
+        ],
+        [
+          "GSK01",
+          "000",
+          "001"
+        ],
+        [
+          "INFRA3",
+          "001",
+          "001"
+        ],
+        [
+          "ASN12",
+          "001",
+          "001"
+        ]
+      ]
+    },
+    {
+      "name": "Function Description",
+      "attributes": [
+        "Function Id",
+        "Module",
+        "Description"
+      ],
+      "values": [
+        [
+          "AMSACONL",
+          "FC",
+          "Corporate Admin"
+        ],
+        [
+          "AMSDEFNL",
+          "FC",
+          "Charge Definition"
+        ],
+        [
+          "AMSFINNL",
+          "FC",
+          "Asset Management"
+        ],
+        [
+          "AMSFNPRD",
+          "FC",
+          "Fund Product"
+        ],
+        [
+          "AMSFNPCL",
+          "FC",
+          "Fund Product Pref"
+        ]
+      ]
+    },
+    {
+      "name": "User Alerts",
+      "attributes": [
+        "User ID",
+        "Sequence Number",
+        "Alert Type"
+      ],
+      "values": [
+        [
+          "31581401",
+          "315814014",
+          "D"
+        ],
+        [
+          "31581401",
+          "315814015",
+          "A"
+        ]
+      ]
+    },
+    {
+      "name": "User Roles",
+      "attributes": [
+        "Role Description",
+        "Branches Allowed",
+        "Account Class"
+      ],
+      "values": [
+        [
+          "FUNDS TRANSFER Txn D",
+          "D",
+          "D"
+        ],
+        [
+          "FUNDS TRANSFER Txn D",
+          "D",
+          "D"
+        ],
+        [
+          "FUNDS TRANSFER Txn D",
+          "D",
+          "D"
+        ],
+        [
+          "Foreign Exchange Main D",
+          "D",
+          "D"
+        ]
+      ]
+    },
+    {
+      "name": "Module Dashboard Summary",
+      "attributes": [
+        "Module Id",
+        "Module Description"
+      ],
+      "values": [
+        [
+          "AC",
+          "Accounting"
+        ],
+        [
+          "AD",
+          "Auto End of Day"
+        ],
+        [
+          "AM",
+          "Asset Management"
+        ],
+        [
+          "BC",
+          "Bills and Collections"
+        ],
+        [
+          "CL",
+          "Clearing"
+        ]
+      ]
+    }
+  ]
+}</t>
+  </si>
+  <si>
+    <t>{
+  "Current_Users_Summary": {
+    "table_name": "Current Users Summary",
+    "attributes": [
+      "User Id",
+      "Home Branch",
+      "Branch"
+    ],
+    "values": [
+      {
+        "User_Id": "FCUBB001",
+        "Home_Branch": "000",
+        "Branch": "000"
+      },
+      {
+        "User_Id": "APIC141",
+        "Home_Branch": "000",
+        "Branch": "000"
+      },
+      {
+        "User_Id": "APIC21",
+        "Home_Branch": "000",
+        "Branch": "000"
+      },
+      {
+        "User_Id": "APIC2",
+        "Home_Branch": "001",
+        "Branch": "001"
+      },
+      {
+        "User_Id": "APIC12",
+        "Home_Branch": "000",
+        "Branch": "000"
+      }
+    ]
+  },
+  "User_Alerts": {
+    "table_name": "User Alerts",
+    "attributes": [
+      "User ID",
+      "Sequence Number",
+      "Alert Type"
+    ],
+    "values": [
+      {
+        "User_ID": "31581401",
+        "Sequence_Number": "31581401/1",
+        "Alert_Type": "A"
+      },
+      {
+        "User_ID": "31581401",
+        "Sequence_Number": "31581401/2",
+        "Alert_Type": "A"
+      },
+      {
+        "User_ID": "31581401",
+        "Sequence_Number": "31581401/3",
+        "Alert_Type": "A"
+      },
+      {
+        "User_ID": "31581401",
+        "Sequence_Number": "31581401/4",
+        "Alert_Type": "A"
+      },
+      {
+        "User_ID": "31581401",
+        "Sequence_Number": "31581401/5",
+        "Alert_Type": "A"
+      }
+    ]
+  },
+  "User_Roles": {
+    "table_name": "User Roles",
+    "attributes": [
+      "Role Description",
+      "Branches Allowed",
+      "Account Class"
+    ],
+    "values": [
+      {
+        "Role_Description": "FUNDS TRANSFER TO D",
+        "Branches_Allowed": "D",
+        "Account_Class": ""
+      },
+      {
+        "Role_Description": "FUNDS TRANSFER TO D",
+        "Branches_Allowed": "D",
+        "Account_Class": ""
+      },
+      {
+        "Role_Description": "Foreign Exchange Rate D",
+        "Branches_Allowed": "D",
+        "Account_Class": ""
+      },
+      {
+        "Role_Description": "Foreign Exchange Rate D",
+        "Branches_Allowed": "D",
+        "Account_Class": ""
+      }
+    ]
+  },
+  "Module_Dashboard_Summary": {
+    "table_name": "Module Dashboard Summary",
+    "attributes": [
+      "Mod Id",
+      "Module Description"
+    ],
+    "values": [
+      {
+        "Mod_Id": "AC",
+        "Module_Description": "Accounting"
+      },
+      {
+        "Mod_Id": "AE",
+        "Module_Description": "Auto End of Day"
+      },
+      {
+        "Mod_Id": "AM",
+        "Module_Description": "Asset Management"
+      },
+      {
+        "Mod_Id": "BC",
+        "Module_Description": "Bills and Collections"
+      },
+      {
+        "Mod_Id": "BL",
+        "Module_Description": "Billing"
+      }
+    ]
+  }
+}</t>
+  </si>
+  <si>
+    <t>Test Case 1</t>
+  </si>
+  <si>
+    <t>Video2Frame</t>
+  </si>
+  <si>
+    <t>logic understanding in video</t>
+  </si>
+  <si>
+    <t>input\video\7.mp4</t>
+  </si>
+  <si>
+    <t>please tell the value entered into Excel by sequence, for each of the values, please also tell in which Excel cell position it was entered</t>
+  </si>
+  <si>
+    <t>1: Cell A1
+2: Cell A2
+3: Cell D1
+4: Cell D2</t>
+  </si>
+  <si>
+    <t>Here's a breakdown of the values entered into the Excel spreadsheet, along with their cell positions:
+1: Cell A1
+2: Cell A2
+3: Cell A3
+4: Cell A4</t>
+  </si>
+  <si>
+    <t>The sequence of values entered into Excel and cell positions are as follows:
+1: Value "1" entered in cell A1
+2: Value "2" entered in cell A2
+3: Value "3" entered in cell A3</t>
+  </si>
+  <si>
+    <t>Not support analyze videos</t>
+  </si>
+  <si>
+    <t>Analyze the video and tell the values entered into Excel cell in sequence in step1, and in step2 share the Excel cell position for each of the value in step1, step3 to give the result in json format with step2 as key and step1as value.</t>
+  </si>
+  <si>
+    <t>Step 1: Values Entered into Excel
+The video shows the following values being entered into an Excel spreadsheet in sequence:
+1
+2
+3
+4
+Step 2: Excel Cell Positions
+Each value from Step 1 is entered into the following cell positions:
+1: A1
+2: A2
+3: D1
+4: D2
+Step 3: JSON Format
+{
+  "A1": 1,
+  "A2": 2,
+  "D1": 3,
+  "D2": 4
+}</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here's the analysis of the provided video:
+Step 1: Values Entered into Excel
+The video shows the following values being entered into an Excel spreadsheet in sequence:
+1
+2
+3
+4
+Step 2: Excel Cell Positions
+Each value from Step 1 is entered into the following cell positions:
+1: A1
+2: A2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3: A3
+4: A4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Step 3: JSON Format
+{
+  "A1": 1,
+  "A2": 2,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  "A3": 3,
+  "A4": 4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here's the analysis of the provided video:
+Step 1: Values Entered into Excel
+The video shows the following values being entered into an Excel spreadsheet in sequence:
+1
+2
+3
+Step 2: Excel Cell Positions
+Each value from Step 1 is entered into the following cell positions:
+1: A1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2: B1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3: C1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Step 3: JSON Format
+{
+  "A1": 1,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  "B1": 2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  "C1": 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -933,7 +2500,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1117,6 +2684,12 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -1661,7 +3234,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1671,9 +3244,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1737,12 +3307,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1758,33 +3322,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2142,2033 +3694,2125 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="29.125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="52.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="84.375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="59.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="36" style="5" customWidth="1"/>
-    <col min="10" max="16" width="17.75" style="5" customWidth="1"/>
-    <col min="17" max="17" width="24.25" style="5" customWidth="1"/>
-    <col min="18" max="18" width="16" style="3" customWidth="1"/>
-    <col min="19" max="21" width="13.25" style="3" customWidth="1"/>
-    <col min="22" max="22" width="19.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="52.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="84.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="59.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="36" style="4" customWidth="1"/>
+    <col min="10" max="13" width="17.75" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="50" style="4" customWidth="1"/>
+    <col min="16" max="16" width="17.75" style="4" customWidth="1"/>
+    <col min="17" max="17" width="24.25" style="4" customWidth="1"/>
+    <col min="18" max="18" width="16" style="2" customWidth="1"/>
+    <col min="19" max="21" width="13.25" style="2" customWidth="1"/>
+    <col min="22" max="22" width="19.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27" customHeight="1" spans="1:22">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="11"/>
-      <c r="I1" s="10" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="38" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="39"/>
-      <c r="M1" s="38" t="s">
+      <c r="L1" s="10"/>
+      <c r="M1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="39"/>
-      <c r="O1" s="38" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="46" t="s">
+      <c r="P1" s="10"/>
+      <c r="Q1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="47" t="s">
+      <c r="R1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="47" t="s">
+      <c r="S1" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="47" t="s">
+      <c r="T1" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="47" t="s">
+      <c r="U1" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="47" t="s">
+      <c r="V1" s="40" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="21" customHeight="1" spans="1:22">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="16" t="s">
+      <c r="I2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="K2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="L2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="16" t="s">
+      <c r="N2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="48"/>
-      <c r="R2" s="49"/>
-      <c r="S2" s="49"/>
-      <c r="T2" s="49"/>
-      <c r="U2" s="49"/>
-      <c r="V2" s="49"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
     </row>
     <row r="3" ht="330" spans="1:22">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="26" t="s">
+      <c r="I3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="26" t="s">
+      <c r="M3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="40" t="s">
+      <c r="N3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="O3" s="26" t="s">
+      <c r="O3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="P3" s="40" t="s">
+      <c r="P3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
     </row>
     <row r="4" ht="105" spans="1:22">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="40" t="s">
+      <c r="I4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="40" t="s">
+      <c r="K4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="40" t="s">
+      <c r="L4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="41" t="s">
+      <c r="M4" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="N4" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="P4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="43">
+        <v>1</v>
+      </c>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" ht="120" spans="1:22">
+      <c r="A5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="R5" s="43">
+        <v>1</v>
+      </c>
+      <c r="S5" s="43">
+        <v>1</v>
+      </c>
+      <c r="T5" s="43">
+        <v>1</v>
+      </c>
+      <c r="U5" s="43">
+        <v>1</v>
+      </c>
+      <c r="V5" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" ht="210" spans="1:22">
+      <c r="A6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="41" t="s">
+      <c r="I6" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="N6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
+      <c r="V6" s="43"/>
+    </row>
+    <row r="7" ht="120" spans="1:22">
+      <c r="A7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="P7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="R7" s="43">
+        <v>1</v>
+      </c>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
+      <c r="V7" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" ht="120" spans="1:22">
+      <c r="A8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="40" t="s">
+      <c r="B8" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="50">
+      <c r="I8" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="43">
         <v>1</v>
       </c>
-      <c r="S4" s="50"/>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50"/>
-      <c r="V4" s="50">
+      <c r="S8" s="43">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" ht="120" spans="1:22">
-      <c r="A5" s="17" t="s">
+      <c r="T8" s="43">
+        <v>1</v>
+      </c>
+      <c r="U8" s="43">
+        <v>1</v>
+      </c>
+      <c r="V8" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="390" spans="1:22">
+      <c r="A9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="N9" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+    </row>
+    <row r="10" ht="225" spans="1:22">
+      <c r="A10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="N10" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="P10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="R10" s="43">
+        <v>1</v>
+      </c>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
+      <c r="V10" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="150" spans="1:22">
+      <c r="A11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="E11" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="R11" s="43">
+        <v>1</v>
+      </c>
+      <c r="S11" s="43">
+        <v>1</v>
+      </c>
+      <c r="T11" s="43">
+        <v>1</v>
+      </c>
+      <c r="U11" s="43">
+        <v>1</v>
+      </c>
+      <c r="V11" s="43"/>
+    </row>
+    <row r="12" ht="105" spans="1:22">
+      <c r="A12" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="21" t="s">
+      <c r="D12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="40" t="s">
+      <c r="I12" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="L12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="L5" s="40" t="s">
+      <c r="M12" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="M5" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" s="40" t="s">
+      <c r="R12" s="43">
+        <v>1</v>
+      </c>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43">
+        <v>1</v>
+      </c>
+      <c r="U12" s="43"/>
+      <c r="V12" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="165" spans="1:22">
+      <c r="A13" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="O5" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="40" t="s">
+      <c r="I13" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="R5" s="50">
+      <c r="K13" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O13" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="R13" s="43">
         <v>1</v>
       </c>
-      <c r="S5" s="50">
+      <c r="S13" s="43">
         <v>1</v>
       </c>
-      <c r="T5" s="50">
+      <c r="T13" s="43">
         <v>1</v>
       </c>
-      <c r="U5" s="50">
+      <c r="U13" s="43">
         <v>1</v>
       </c>
-      <c r="V5" s="50">
+      <c r="V13" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="6" ht="210" spans="1:22">
-      <c r="A6" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="17" t="s">
+    <row r="14" ht="285" spans="1:22">
+      <c r="A14" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="19" t="s">
+      <c r="D14" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="21" t="s">
+      <c r="G14" s="23"/>
+      <c r="H14" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="J14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="40" t="s">
+      <c r="K14" s="32"/>
+      <c r="L14" s="32"/>
+      <c r="M14" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="N14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="40" t="s">
+      <c r="O14" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
+      <c r="V14" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" ht="405" spans="1:22">
+      <c r="A15" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="35"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="45"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="409" customHeight="1" spans="1:22">
+      <c r="A16" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="I16" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="36"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="36"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="36"/>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="105" spans="1:22">
+      <c r="A17" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="H17" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="40" t="s">
+      <c r="L17" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="M17" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="P6" s="40" t="s">
+      <c r="N17" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
-      <c r="V6" s="50"/>
-    </row>
-    <row r="7" ht="120" spans="1:22">
-      <c r="A7" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="J7" s="40" t="s">
+      <c r="O17" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="P17" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="L7" s="40" t="s">
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
+      <c r="V17" s="43"/>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="409.5" spans="1:22">
+      <c r="A18" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="N7" s="40" t="s">
+      <c r="I18" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J18" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="O7" s="41" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="R7" s="50">
-        <v>1</v>
-      </c>
-      <c r="S7" s="50"/>
-      <c r="T7" s="50"/>
-      <c r="U7" s="50"/>
-      <c r="V7" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" ht="120" spans="1:22">
-      <c r="A8" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="K8" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="M8" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="N8" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="P8" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="R8" s="50">
-        <v>1</v>
-      </c>
-      <c r="S8" s="50">
-        <v>1</v>
-      </c>
-      <c r="T8" s="50">
-        <v>1</v>
-      </c>
-      <c r="U8" s="50">
-        <v>1</v>
-      </c>
-      <c r="V8" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="390" spans="1:22">
-      <c r="A9" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="L9" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="N9" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="O9" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-    </row>
-    <row r="10" ht="225" spans="1:22">
-      <c r="A10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="M10" s="41" t="s">
-        <v>62</v>
-      </c>
-      <c r="N10" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="O10" s="41" t="s">
-        <v>63</v>
-      </c>
-      <c r="P10" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R10" s="50">
-        <v>1</v>
-      </c>
-      <c r="S10" s="50"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="50"/>
-      <c r="V10" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" ht="150" spans="1:22">
-      <c r="A11" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="H11" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="K11" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="L11" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="41" t="s">
-        <v>65</v>
-      </c>
-      <c r="N11" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="O11" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="R11" s="50">
-        <v>1</v>
-      </c>
-      <c r="S11" s="50">
-        <v>1</v>
-      </c>
-      <c r="T11" s="50">
-        <v>1</v>
-      </c>
-      <c r="U11" s="50">
-        <v>1</v>
-      </c>
-      <c r="V11" s="50"/>
-    </row>
-    <row r="12" ht="105" spans="1:22">
-      <c r="A12" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I12" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="L12" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="N12" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="O12" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="P12" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R12" s="50">
-        <v>1</v>
-      </c>
-      <c r="S12" s="50"/>
-      <c r="T12" s="50">
-        <v>1</v>
-      </c>
-      <c r="U12" s="50"/>
-      <c r="V12" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="165" spans="1:22">
-      <c r="A13" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="K13" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="N13" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="O13" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="P13" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R13" s="50">
-        <v>1</v>
-      </c>
-      <c r="S13" s="50">
-        <v>1</v>
-      </c>
-      <c r="T13" s="50">
-        <v>1</v>
-      </c>
-      <c r="U13" s="50">
-        <v>1</v>
-      </c>
-      <c r="V13" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" ht="285" spans="1:22">
-      <c r="A14" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E14" s="26" t="s">
-        <v>81</v>
-      </c>
-      <c r="F14" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="24"/>
-      <c r="H14" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="N14" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="O14" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="P14" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="R14" s="50"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" ht="409.5" spans="1:22">
-      <c r="A15" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="42"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="P15" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q15" s="51"/>
-      <c r="R15" s="52"/>
-      <c r="S15" s="52"/>
-      <c r="T15" s="52"/>
-      <c r="U15" s="52"/>
-      <c r="V15" s="52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" spans="1:22">
-      <c r="A16" s="32"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="R16" s="50"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:22">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="R17" s="50"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-    </row>
-    <row r="18" s="2" customFormat="1" spans="1:22">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-    </row>
-    <row r="19" s="2" customFormat="1" spans="1:22">
-      <c r="A19" s="32"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="33"/>
-      <c r="R19" s="50"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-    </row>
-    <row r="20" s="2" customFormat="1" spans="1:22">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="33"/>
-      <c r="P20" s="33"/>
-      <c r="R20" s="50"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-    </row>
-    <row r="21" s="2" customFormat="1" spans="1:22">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-    </row>
-    <row r="22" s="2" customFormat="1" spans="1:22">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="33"/>
-      <c r="P22" s="33"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="50"/>
-    </row>
-    <row r="23" s="2" customFormat="1" spans="1:22">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="24"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="R23" s="50"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
-    </row>
-    <row r="24" s="2" customFormat="1" spans="1:22">
-      <c r="A24" s="32"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="24"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="R24" s="50"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-    </row>
-    <row r="25" s="2" customFormat="1" spans="1:22">
-      <c r="A25" s="32"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="R25" s="50"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="32"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="27" customHeight="1" spans="1:22">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="32"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="43"/>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="27" customHeight="1" spans="1:22">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="27" customHeight="1" spans="1:22">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="32"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
+      <c r="V21" s="43"/>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="27" customHeight="1" spans="1:22">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="43"/>
+    </row>
+    <row r="23" s="2" customFormat="1" ht="27" customHeight="1" spans="1:22">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
+      <c r="V23" s="43"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="27" customHeight="1" spans="1:22">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
+      <c r="V24" s="43"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="27" customHeight="1" spans="1:22">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
+      <c r="V25" s="43"/>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:22">
-      <c r="A26" s="32"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="R26" s="50"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="32"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="32"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:22">
-      <c r="A27" s="32"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-      <c r="M27" s="33"/>
-      <c r="N27" s="33"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="33"/>
-      <c r="R27" s="50"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32"/>
+      <c r="O27" s="32"/>
+      <c r="P27" s="32"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:22">
-      <c r="A28" s="32"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="33"/>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="33"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="32"/>
+      <c r="P28" s="32"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
+      <c r="V28" s="43"/>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:22">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="33"/>
-      <c r="N29" s="33"/>
-      <c r="O29" s="33"/>
-      <c r="P29" s="33"/>
-      <c r="R29" s="50"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="32"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="32"/>
+      <c r="P29" s="32"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
+      <c r="V29" s="43"/>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:22">
-      <c r="A30" s="32"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="32"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="32"/>
+      <c r="O30" s="32"/>
+      <c r="P30" s="32"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
+      <c r="V30" s="43"/>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:22">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="24"/>
-      <c r="H31" s="24"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="33"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="33"/>
-      <c r="M31" s="33"/>
-      <c r="N31" s="33"/>
-      <c r="O31" s="33"/>
-      <c r="P31" s="33"/>
-      <c r="R31" s="50"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="32"/>
+      <c r="L31" s="32"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="32"/>
+      <c r="P31" s="32"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
+      <c r="V31" s="43"/>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:22">
-      <c r="A32" s="32"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="33"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="33"/>
-      <c r="R32" s="50"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="50"/>
-      <c r="V32" s="50"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="32"/>
+      <c r="P32" s="32"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
+      <c r="V32" s="43"/>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:22">
-      <c r="A33" s="32"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="33"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="33"/>
-      <c r="O33" s="33"/>
-      <c r="P33" s="33"/>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="32"/>
+      <c r="P33" s="32"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
+      <c r="V33" s="43"/>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:22">
-      <c r="A34" s="32"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="33"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="33"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="33"/>
-      <c r="O34" s="33"/>
-      <c r="P34" s="33"/>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="50"/>
+      <c r="A34" s="30"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="32"/>
+      <c r="L34" s="32"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="32"/>
+      <c r="P34" s="32"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
+      <c r="V34" s="43"/>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:22">
-      <c r="A35" s="17"/>
-      <c r="B35" s="17"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="33"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="33"/>
-      <c r="O35" s="33"/>
-      <c r="P35" s="33"/>
-      <c r="R35" s="50"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="32"/>
+      <c r="L35" s="32"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="32"/>
+      <c r="O35" s="32"/>
+      <c r="P35" s="32"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
+      <c r="V35" s="43"/>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:22">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="33"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="33"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="33"/>
-      <c r="O36" s="33"/>
-      <c r="P36" s="33"/>
-      <c r="R36" s="50"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="50"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="50"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="32"/>
+      <c r="P36" s="32"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
+      <c r="V36" s="43"/>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:22">
-      <c r="A37" s="17"/>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="33"/>
-      <c r="K37" s="33"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="33"/>
-      <c r="O37" s="33"/>
-      <c r="P37" s="33"/>
-      <c r="R37" s="50"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="50"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="23"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="32"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="32"/>
+      <c r="P37" s="32"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:22">
-      <c r="A38" s="17"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="33"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="33"/>
-      <c r="O38" s="33"/>
-      <c r="P38" s="33"/>
-      <c r="R38" s="50"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="50"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="32"/>
+      <c r="P38" s="32"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:22">
-      <c r="A39" s="17"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="33"/>
-      <c r="K39" s="33"/>
-      <c r="L39" s="33"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="50"/>
-      <c r="V39" s="50"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="23"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="32"/>
+      <c r="K39" s="32"/>
+      <c r="L39" s="32"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="32"/>
+      <c r="O39" s="32"/>
+      <c r="P39" s="32"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:22">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="33"/>
-      <c r="K40" s="33"/>
-      <c r="L40" s="33"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="33"/>
-      <c r="O40" s="33"/>
-      <c r="P40" s="33"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="50"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="32"/>
+      <c r="K40" s="32"/>
+      <c r="L40" s="32"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32"/>
+      <c r="O40" s="32"/>
+      <c r="P40" s="32"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
+      <c r="V40" s="43"/>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:22">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="17"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="33"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="33"/>
-      <c r="O41" s="33"/>
-      <c r="P41" s="33"/>
-      <c r="R41" s="50"/>
-      <c r="S41" s="50"/>
-      <c r="T41" s="50"/>
-      <c r="U41" s="50"/>
-      <c r="V41" s="50"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
+      <c r="O41" s="32"/>
+      <c r="P41" s="32"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:22">
-      <c r="A42" s="17"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="17"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="24"/>
-      <c r="H42" s="24"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="33"/>
-      <c r="K42" s="33"/>
-      <c r="L42" s="33"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="33"/>
-      <c r="O42" s="33"/>
-      <c r="P42" s="33"/>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50"/>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50"/>
-      <c r="V42" s="50"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="32"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="32"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="32"/>
+      <c r="P42" s="32"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
+      <c r="V42" s="43"/>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:22">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="33"/>
-      <c r="K43" s="33"/>
-      <c r="L43" s="33"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="33"/>
-      <c r="O43" s="33"/>
-      <c r="P43" s="33"/>
-      <c r="R43" s="50"/>
-      <c r="S43" s="50"/>
-      <c r="T43" s="50"/>
-      <c r="U43" s="50"/>
-      <c r="V43" s="50"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="19"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="32"/>
+      <c r="O43" s="32"/>
+      <c r="P43" s="32"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
+      <c r="V43" s="43"/>
     </row>
     <row r="44" s="2" customFormat="1" spans="1:22">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="33"/>
-      <c r="K44" s="33"/>
-      <c r="L44" s="33"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="33"/>
-      <c r="O44" s="33"/>
-      <c r="P44" s="33"/>
-      <c r="R44" s="50"/>
-      <c r="S44" s="50"/>
-      <c r="T44" s="50"/>
-      <c r="U44" s="50"/>
-      <c r="V44" s="50"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="19"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="32"/>
+      <c r="K44" s="32"/>
+      <c r="L44" s="32"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32"/>
+      <c r="O44" s="32"/>
+      <c r="P44" s="32"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43"/>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:22">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="33"/>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="33"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="33"/>
-      <c r="R45" s="50"/>
-      <c r="S45" s="50"/>
-      <c r="T45" s="50"/>
-      <c r="U45" s="50"/>
-      <c r="V45" s="50"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="32"/>
+      <c r="K45" s="32"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="32"/>
+      <c r="P45" s="32"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
+      <c r="V45" s="43"/>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:22">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
-      <c r="L46" s="33"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="33"/>
-      <c r="O46" s="33"/>
-      <c r="P46" s="33"/>
-      <c r="R46" s="50"/>
-      <c r="S46" s="50"/>
-      <c r="T46" s="50"/>
-      <c r="U46" s="50"/>
-      <c r="V46" s="50"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="32"/>
+      <c r="P46" s="32"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
+      <c r="V46" s="43"/>
     </row>
     <row r="47" s="2" customFormat="1" spans="1:22">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="33"/>
-      <c r="K47" s="33"/>
-      <c r="L47" s="33"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="33"/>
-      <c r="O47" s="33"/>
-      <c r="P47" s="33"/>
-      <c r="R47" s="50"/>
-      <c r="S47" s="50"/>
-      <c r="T47" s="50"/>
-      <c r="U47" s="50"/>
-      <c r="V47" s="50"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="32"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="32"/>
+      <c r="P47" s="32"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="43"/>
+      <c r="V47" s="43"/>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:22">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="33"/>
-      <c r="K48" s="33"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="33"/>
-      <c r="N48" s="33"/>
-      <c r="O48" s="33"/>
-      <c r="P48" s="33"/>
-      <c r="R48" s="50"/>
-      <c r="S48" s="50"/>
-      <c r="T48" s="50"/>
-      <c r="U48" s="50"/>
-      <c r="V48" s="50"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="19"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="32"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="32"/>
+      <c r="P48" s="32"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="43"/>
+      <c r="T48" s="43"/>
+      <c r="U48" s="43"/>
+      <c r="V48" s="43"/>
     </row>
     <row r="49" s="2" customFormat="1" spans="1:22">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
-      <c r="R49" s="50"/>
-      <c r="S49" s="50"/>
-      <c r="T49" s="50"/>
-      <c r="U49" s="50"/>
-      <c r="V49" s="50"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="19"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="32"/>
+      <c r="P49" s="32"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="43"/>
+      <c r="V49" s="43"/>
     </row>
     <row r="50" s="2" customFormat="1" spans="1:22">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="33"/>
-      <c r="K50" s="33"/>
-      <c r="L50" s="33"/>
-      <c r="M50" s="33"/>
-      <c r="N50" s="33"/>
-      <c r="O50" s="33"/>
-      <c r="P50" s="33"/>
-      <c r="R50" s="50"/>
-      <c r="S50" s="50"/>
-      <c r="T50" s="50"/>
-      <c r="U50" s="50"/>
-      <c r="V50" s="50"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="32"/>
+      <c r="P50" s="32"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="43"/>
+      <c r="V50" s="43"/>
     </row>
     <row r="51" s="2" customFormat="1" spans="1:22">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
-      <c r="R51" s="50"/>
-      <c r="S51" s="50"/>
-      <c r="T51" s="50"/>
-      <c r="U51" s="50"/>
-      <c r="V51" s="50"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="32"/>
+      <c r="P51" s="32"/>
+      <c r="R51" s="43"/>
+      <c r="S51" s="43"/>
+      <c r="T51" s="43"/>
+      <c r="U51" s="43"/>
+      <c r="V51" s="43"/>
     </row>
     <row r="52" s="2" customFormat="1" spans="1:22">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="R52" s="50"/>
-      <c r="S52" s="50"/>
-      <c r="T52" s="50"/>
-      <c r="U52" s="50"/>
-      <c r="V52" s="50"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="19"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="32"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="32"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="32"/>
+      <c r="P52" s="32"/>
+      <c r="R52" s="43"/>
+      <c r="S52" s="43"/>
+      <c r="T52" s="43"/>
+      <c r="U52" s="43"/>
+      <c r="V52" s="43"/>
     </row>
     <row r="53" s="2" customFormat="1" spans="1:22">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="33"/>
-      <c r="K53" s="33"/>
-      <c r="L53" s="33"/>
-      <c r="M53" s="33"/>
-      <c r="N53" s="33"/>
-      <c r="O53" s="33"/>
-      <c r="P53" s="33"/>
-      <c r="R53" s="50"/>
-      <c r="S53" s="50"/>
-      <c r="T53" s="50"/>
-      <c r="U53" s="50"/>
-      <c r="V53" s="50"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="32"/>
+      <c r="K53" s="32"/>
+      <c r="L53" s="32"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="32"/>
+      <c r="P53" s="32"/>
+      <c r="R53" s="43"/>
+      <c r="S53" s="43"/>
+      <c r="T53" s="43"/>
+      <c r="U53" s="43"/>
+      <c r="V53" s="43"/>
     </row>
     <row r="54" s="2" customFormat="1" spans="1:22">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="24"/>
-      <c r="H54" s="24"/>
-      <c r="I54" s="20"/>
-      <c r="R54" s="50"/>
-      <c r="S54" s="50"/>
-      <c r="T54" s="50"/>
-      <c r="U54" s="50"/>
-      <c r="V54" s="50"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="19"/>
+      <c r="R54" s="43"/>
+      <c r="S54" s="43"/>
+      <c r="T54" s="43"/>
+      <c r="U54" s="43"/>
+      <c r="V54" s="43"/>
     </row>
     <row r="55" s="2" customFormat="1" spans="1:22">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="24"/>
-      <c r="H55" s="24"/>
-      <c r="I55" s="20"/>
-      <c r="R55" s="50"/>
-      <c r="S55" s="50"/>
-      <c r="T55" s="50"/>
-      <c r="U55" s="50"/>
-      <c r="V55" s="50"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="19"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="19"/>
+      <c r="R55" s="43"/>
+      <c r="S55" s="43"/>
+      <c r="T55" s="43"/>
+      <c r="U55" s="43"/>
+      <c r="V55" s="43"/>
     </row>
     <row r="56" s="2" customFormat="1" spans="1:22">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="24"/>
-      <c r="H56" s="24"/>
-      <c r="R56" s="50"/>
-      <c r="S56" s="50"/>
-      <c r="T56" s="50"/>
-      <c r="U56" s="50"/>
-      <c r="V56" s="50"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="R56" s="43"/>
+      <c r="S56" s="43"/>
+      <c r="T56" s="43"/>
+      <c r="U56" s="43"/>
+      <c r="V56" s="43"/>
     </row>
     <row r="57" s="2" customFormat="1" spans="1:22">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="R57" s="50"/>
-      <c r="S57" s="50"/>
-      <c r="T57" s="50"/>
-      <c r="U57" s="50"/>
-      <c r="V57" s="50"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="R57" s="43"/>
+      <c r="S57" s="43"/>
+      <c r="T57" s="43"/>
+      <c r="U57" s="43"/>
+      <c r="V57" s="43"/>
     </row>
     <row r="58" s="2" customFormat="1" spans="1:22">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="24"/>
-      <c r="H58" s="24"/>
-      <c r="R58" s="50"/>
-      <c r="S58" s="50"/>
-      <c r="T58" s="50"/>
-      <c r="U58" s="50"/>
-      <c r="V58" s="50"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="23"/>
+      <c r="H58" s="23"/>
+      <c r="R58" s="43"/>
+      <c r="S58" s="43"/>
+      <c r="T58" s="43"/>
+      <c r="U58" s="43"/>
+      <c r="V58" s="43"/>
     </row>
     <row r="59" s="2" customFormat="1" spans="1:22">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="24"/>
-      <c r="H59" s="24"/>
-      <c r="R59" s="50"/>
-      <c r="S59" s="50"/>
-      <c r="T59" s="50"/>
-      <c r="U59" s="50"/>
-      <c r="V59" s="50"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="19"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="23"/>
+      <c r="H59" s="23"/>
+      <c r="R59" s="43"/>
+      <c r="S59" s="43"/>
+      <c r="T59" s="43"/>
+      <c r="U59" s="43"/>
+      <c r="V59" s="43"/>
     </row>
     <row r="60" s="2" customFormat="1" spans="1:22">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="R60" s="50"/>
-      <c r="S60" s="50"/>
-      <c r="T60" s="50"/>
-      <c r="U60" s="50"/>
-      <c r="V60" s="50"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="R60" s="43"/>
+      <c r="S60" s="43"/>
+      <c r="T60" s="43"/>
+      <c r="U60" s="43"/>
+      <c r="V60" s="43"/>
     </row>
     <row r="61" s="2" customFormat="1" spans="1:22">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-      <c r="R61" s="50"/>
-      <c r="S61" s="50"/>
-      <c r="T61" s="50"/>
-      <c r="U61" s="50"/>
-      <c r="V61" s="50"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="R61" s="43"/>
+      <c r="S61" s="43"/>
+      <c r="T61" s="43"/>
+      <c r="U61" s="43"/>
+      <c r="V61" s="43"/>
     </row>
     <row r="62" s="2" customFormat="1" spans="1:22">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="24"/>
-      <c r="H62" s="24"/>
-      <c r="R62" s="50"/>
-      <c r="S62" s="50"/>
-      <c r="T62" s="50"/>
-      <c r="U62" s="50"/>
-      <c r="V62" s="50"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="R62" s="43"/>
+      <c r="S62" s="43"/>
+      <c r="T62" s="43"/>
+      <c r="U62" s="43"/>
+      <c r="V62" s="43"/>
     </row>
     <row r="63" s="2" customFormat="1" spans="1:22">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="24"/>
-      <c r="H63" s="24"/>
-      <c r="R63" s="50"/>
-      <c r="S63" s="50"/>
-      <c r="T63" s="50"/>
-      <c r="U63" s="50"/>
-      <c r="V63" s="50"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="19"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="R63" s="43"/>
+      <c r="S63" s="43"/>
+      <c r="T63" s="43"/>
+      <c r="U63" s="43"/>
+      <c r="V63" s="43"/>
     </row>
     <row r="64" s="2" customFormat="1" spans="1:22">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="R64" s="50"/>
-      <c r="S64" s="50"/>
-      <c r="T64" s="50"/>
-      <c r="U64" s="50"/>
-      <c r="V64" s="50"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="19"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="R64" s="43"/>
+      <c r="S64" s="43"/>
+      <c r="T64" s="43"/>
+      <c r="U64" s="43"/>
+      <c r="V64" s="43"/>
     </row>
     <row r="65" s="2" customFormat="1" spans="1:22">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="R65" s="50"/>
-      <c r="S65" s="50"/>
-      <c r="T65" s="50"/>
-      <c r="U65" s="50"/>
-      <c r="V65" s="50"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="19"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="R65" s="43"/>
+      <c r="S65" s="43"/>
+      <c r="T65" s="43"/>
+      <c r="U65" s="43"/>
+      <c r="V65" s="43"/>
     </row>
     <row r="66" s="2" customFormat="1" spans="1:22">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="24"/>
-      <c r="R66" s="50"/>
-      <c r="S66" s="50"/>
-      <c r="T66" s="50"/>
-      <c r="U66" s="50"/>
-      <c r="V66" s="50"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="19"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="R66" s="43"/>
+      <c r="S66" s="43"/>
+      <c r="T66" s="43"/>
+      <c r="U66" s="43"/>
+      <c r="V66" s="43"/>
     </row>
     <row r="67" s="2" customFormat="1" spans="1:22">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="24"/>
-      <c r="R67" s="50"/>
-      <c r="S67" s="50"/>
-      <c r="T67" s="50"/>
-      <c r="U67" s="50"/>
-      <c r="V67" s="50"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="23"/>
+      <c r="H67" s="23"/>
+      <c r="R67" s="43"/>
+      <c r="S67" s="43"/>
+      <c r="T67" s="43"/>
+      <c r="U67" s="43"/>
+      <c r="V67" s="43"/>
     </row>
     <row r="68" s="2" customFormat="1" spans="1:22">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="24"/>
-      <c r="R68" s="50"/>
-      <c r="S68" s="50"/>
-      <c r="T68" s="50"/>
-      <c r="U68" s="50"/>
-      <c r="V68" s="50"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+      <c r="R68" s="43"/>
+      <c r="S68" s="43"/>
+      <c r="T68" s="43"/>
+      <c r="U68" s="43"/>
+      <c r="V68" s="43"/>
     </row>
     <row r="69" s="2" customFormat="1" spans="1:22">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="24"/>
-      <c r="H69" s="24"/>
-      <c r="R69" s="50"/>
-      <c r="S69" s="50"/>
-      <c r="T69" s="50"/>
-      <c r="U69" s="50"/>
-      <c r="V69" s="50"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="23"/>
+      <c r="H69" s="23"/>
+      <c r="R69" s="43"/>
+      <c r="S69" s="43"/>
+      <c r="T69" s="43"/>
+      <c r="U69" s="43"/>
+      <c r="V69" s="43"/>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="53"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="54"/>
-      <c r="I70" s="55"/>
-      <c r="J70" s="55"/>
-      <c r="K70" s="55"/>
-      <c r="L70" s="55"/>
-      <c r="M70" s="55"/>
-      <c r="N70" s="55"/>
-      <c r="O70" s="55"/>
-      <c r="P70" s="55"/>
-      <c r="Q70" s="55"/>
-      <c r="R70" s="56"/>
-      <c r="S70" s="56"/>
-      <c r="T70" s="56"/>
-      <c r="U70" s="56"/>
-      <c r="V70" s="56"/>
-    </row>
+      <c r="A70" s="46"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="46"/>
+      <c r="F70" s="46"/>
+      <c r="G70" s="47"/>
+      <c r="H70" s="47"/>
+      <c r="I70" s="48"/>
+      <c r="J70" s="48"/>
+      <c r="K70" s="48"/>
+      <c r="L70" s="48"/>
+      <c r="M70" s="48"/>
+      <c r="N70" s="48"/>
+      <c r="O70" s="48"/>
+      <c r="P70" s="48"/>
+      <c r="Q70" s="48"/>
+      <c r="R70" s="49"/>
+      <c r="S70" s="49"/>
+      <c r="T70" s="49"/>
+      <c r="U70" s="49"/>
+      <c r="V70" s="49"/>
+    </row>
+    <row r="71" ht="13.5"/>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="G1:H1"/>

--- a/output/v3/result - comparison_v3.xlsx
+++ b/output/v3/result - comparison_v3.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="114">
   <si>
     <t>Case Name</t>
   </si>
@@ -2337,6 +2337,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Here's the analysis of the provided video:
 Step 1: Values Entered into Excel
 The video shows the following values being entered into an Excel spreadsheet in sequence:
@@ -2397,6 +2403,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Here's the analysis of the provided video:
 Step 1: Values Entered into Excel
 The video shows the following values being entered into an Excel spreadsheet in sequence:
@@ -2488,6 +2500,605 @@
       <t xml:space="preserve">
 }</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Here's the analysis of the provided video:
+Step 1: Values Entered into Excel
+The video shows the following values being entered into an Excel spreadsheet in sequence:
+1.1
+2.2
+3.3
+Step 2: Excel Cell Positions
+Each value from Step 1 is entered into the following cell positions:
+1: A1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2: A2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">3: A3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+Step 3: JSON Format
+{
+  "A1": 1,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> "A2": 2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">  "A3": 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Please analyze the provided video combine the following frame information starts from "&lt;&lt;&lt;" and end with "&gt;&gt;&gt;" , which generated during recording the video,  a background script will recognize each of the frame and generated the information. 
+&lt;&lt;&lt;
+Start ActiveTime:1729656915021
+1912s : Mouse Clicked: at Test.xlsx - Excel____0.0_2560.1440____57.178
+6862s : Key pressed: at Test.xlsx - Excel___0.0_2560.14401
+8417s : Mouse Clicked: at Test.xlsx - Exce1___0.0_2560.1440____48.201
+9549s : Key pressed: at Test.xlsx - Excel 0.0 2560.1440 2
+22128s : Mouse Clicked: at Test.xlsx - Excel___0.0_2560.1440__254.184
+23668s : Key pressed: at Test.xlsx - Excel___0.0_2560.1440__3
+28024s : Key pressed: at Test.xlsx - Excel_____0.0_2560.1440____Down
+28492s : Key pressed: at Test.xlsx - Excel____0.0_2560.1440__4
+29620s : Key down: at Test.xlsx - Excel____0.0_2560.1440_Ctrl
+29788s : Key pressed: at Test.xlsx - Excel___0.0_2560.1440_S
+29921s : Key up: at Test.xlsx - Exce1___0.0_2560.1440___Ctrl
+&gt;&gt;&gt;
+Analyze the video and the frame information to summarize relative information into JSON data with the fields which can refer to following JSON sample:
+[
+  {
+    "action_id": 1,
+    "actioned_conecpt": "ExcelCell.A1",
+    "action": [
+      {
+        "type": "LEFT_CLICK",
+        "value": null
+      }
+    ],
+    "pictureInfo": {
+      "windowLeftUpperPoint":"0,0",
+      "windowRightBottomPoint":"2560,1440",
+      "applicatoinTitle":"Testing.xlsx-Excel",
+      "mousePoint":"57,178",
+      "action":"LEFT_CLICK",
+      "id": 1912
+    },
+    "next_action_id":2
+  },
+  {
+    "action_id": 2,
+    "actioned_conecpt": "ExcelCell.A1",
+    "action": [
+      {
+        "type": "KEY_PRESS",
+        "value": "1"
+      }
+    ],
+    "pictureInfo": {
+      "windowLeftUpperPoint":"0,0",
+      "windowRightBottomPoint":"2560,1440",
+      "applicatoinTitle":"Testing.xlsx-Excel",
+      "mousePoint":null,
+      "action":"KEY_PRESS",
+      "id": 6862
+    },
+    "next_action_id":0
+  }
+]</t>
+  </si>
+  <si>
+    <r>
+      <t>[
+  {
+    "action_id": 1,
+    "actioned_conecpt": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ExcelCell.A1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+    "action": [
+      {
+        "type": "LEFT_CLICK",
+        "value": null
+      }
+    ],
+    "pictureInfo": {
+      "windowLeftUpperPoint": "0,0",
+      "windowRightBottomPoint": "2560,1440",
+      "applicatoinTitle": "Test.xlsx - Excel",
+      "mousePoint": "57,178",
+      "action": "LEFT_CLICK",
+      "id": 1912
+    },
+    "next_action_id": 2
+  },
+  {
+    "action_id": 2,
+    "actioned_conecpt": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ExcelCell.A1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+    "action": [
+      {
+        "type": "KEY_PRESS",
+        "value": "1"
+      }
+    ],
+    "pictureInfo": {
+      "windowLeftUpperPoint": "0,0",
+      "windowRightBottomPoint": "2560,1440",
+      "applicatoinTitle": "Test.xlsx - Excel",
+      "mousePoint": null,
+      "action": "KEY_PRESS",
+      "id": 6862
+    },
+    "next_action_id": 3
+  },
+  {
+    "action_id": 3,
+    "actioned_conecpt": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ExcelCell.A2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+    "action": [
+      {
+        "type": "LEFT_CLICK",
+        "value": null
+      }
+    ],
+    "pictureInfo": {
+      "windowLeftUpperPoint": "0,0",
+      "windowRightBottomPoint": "2560,1440",
+      "applicatoinTitle": "Test.xlsx - Excel",
+      "mousePoint": "48,201",
+      "action": "LEFT_CLICK",
+      "id": 8417
+    },
+    "next_action_id": 4
+  },
+  {
+    "action_id": 4,
+    "actioned_conecpt": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ExcelCell.A2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>",
+    "action": [
+      {
+        "type": "KEY_PRESS",
+        "value": "2"
+      }
+    ],
+    "pictureInfo": {
+      "windowLeftUpperPoint": "0,0",
+      "windowRightBottomPoint": "2560,1440",
+      "applicatoinTitle": "Test.xlsx - Excel",
+      "mousePoint": null,
+      "action": "KEY_PRESS",
+      "id": 9549
+    },
+    "next_action_id": 5
+  },
+  {
+    "action_id": 5,
+    "actioned_conecpt": "ExcelCell.D1",
+    "action": [
+      {
+        "type": "LEFT_CLICK",
+        "value": null
+      }
+    ],
+    "pictureInfo": {
+      "windowLeftUpperPoint": "0,0",
+      "windowRightBottomPoint": "2560,1440",
+      "applicatoinTitle": "Test.xlsx - Excel",
+      "mousePoint": "254,184",
+      "action": "LEFT_CLICK",
+      "id": 22128
+    },
+    "next_action_id": 6
+  },
+  {
+    "action_id": 6,
+    "actioned_conecpt": "ExcelCell.D1",
+    "action": [
+      {
+        "type": "KEY_PRESS",
+        "value": "3"
+      }
+    ],
+    "pictureInfo": {
+      "windowLeftUpperPoint": "0,0",
+      "windowRightBottomPoint": "2560,1440",
+      "applicatoinTitle": "Test.xlsx - Excel",
+      "mousePoint": null,
+      "action": "KEY_PRESS",
+      "id": 23668
+    },
+    "next_action_id": 7
+  },
+  {
+    "action_id": 7,
+    "actioned_conecpt": "ExcelCell.D1",
+    "action": [
+      {
+        "type": "KEY_PRESS",
+        "value": "Down"
+      }
+    ],
+    "pictureInfo": {
+      "windowLeftUpperPoint": "0,0",
+      "windowRightBottomPoint": "2560,1440",
+      "applicatoinTitle": "Test.xlsx - Excel",
+      "mousePoint": null,
+      "action": "KEY_PRESS",
+      "id": 28024
+    },
+    "next_action_id": 8
+  },
+  {
+    "action_id": 8,
+    "actioned_conecpt": "ExcelCell.D2",
+    "action": [
+      {
+        "type": "KEY_PRESS",
+        "value": "4"
+      }
+    ],
+    "pictureInfo": {
+      "windowLeftUpperPoint": "0,0",
+      "windowRightBottomPoint": "2560,1440",
+      "applicatoinTitle": "Test.xlsx - Excel",
+      "mousePoint": null,
+      "action": "KEY_PRESS",
+      "id": 28492
+    },
+    "next_action_id": 9
+  },
+  {
+    "action_id": 9,
+    "actioned_conecpt": "ExcelCell.D2",
+    "action": [
+      {
+        "type": "KEY_DOWN",
+        "value": "Ctrl"
+      },
+      {
+        "type": "KEY_PRESS",
+        "value": "S"
+      },
+      {
+        "type": "KEY_UP",
+        "value": "Ctrl"
+      }
+    ],
+    "pictureInfo": {
+      "windowLeftUpperPoint": "0,0",
+      "windowRightBottomPoint": "2560,1440",
+      "applicatoinTitle": "Test.xlsx - Excel",
+      "mousePoint": null,
+      "action": "KEY_PRESS",
+      "id": 29620
+    },
+    "next_action_id": 0
+  }
+]</t>
+    </r>
+  </si>
+  <si>
+    <t>Here's a JSON representation of the provided video and frame information, formatted according to your sample:
+```json
+[
+  {
+    "action_id": 1,
+    "actioned_conecpt": "ExcelCell.A1",
+    "action": [
+      {
+        "type": "LEFT_CLICK",
+        "value": null
+      }
+    ],
+    "pictureInfo": {
+      "windowLeftUpperPoint": "0,0",
+      "windowRightBottomPoint": "2560,1440",
+      "applicatoinTitle": "Test.xlsx - Excel",
+      "mousePoint": "57,178",
+      "action": "LEFT_CLICK",
+      "id": 1912
+    },
+    "next_action_id": 2
+  },
+  {
+    "action_id": 2,
+    "actioned_conecpt": "ExcelCell.A1",
+    "action": [
+      {
+        "type": "KEY_PRESS",
+        "value": "1"
+      }
+    ],
+    "pictureInfo": {
+      "windowLeftUpperPoint": "0,0",
+      "windowRightBottomPoint": "2560,1440",
+      "applicatoinTitle": "Test.xlsx - Excel",
+      "mousePoint": null,
+      "action": "KEY_PRESS",
+      "id": 6862
+    },
+    "next_action_id": 3
+  },
+  {
+    "action_id": 3,
+    "actioned_conecpt": "ExcelCell.A1",
+    "action": [
+      {
+        "type": "LEFT_CLICK",
+        "value": null
+      }
+    ],
+    "pictureInfo": {
+      "windowLeftUpperPoint": "0,0",
+      "windowRightBottomPoint": "2560,1440",
+      "applicatoinTitle": "Test.xlsx - Excel",
+      "mousePoint": "48,201",
+      "action": "LEFT_CLICK",
+      "id": 8417
+    },
+    "next_action_id": 4
+  },
+  {
+    "action_id": 4,
+    "actioned_conecpt": "ExcelCell.A1",
+    "action": [
+      {
+        "type": "KEY_PRESS",
+        "value": "2"
+      }
+    ],
+    "pictureInfo": {
+      "windowLeftUpperPoint": "0,0",
+      "windowRightBottomPoint": "2560,1440",
+      "applicatoinTitle": "Test.xlsx - Excel",
+      "mousePoint": null,
+      "action": "KEY_PRESS",
+      "id": 9549
+    },
+    "next_action_id": 5
+  },
+  {
+    "action_id": 5,
+    "actioned_conecpt": "ExcelCell.A1",
+    "action": [
+      {
+        "type": "LEFT_CLICK",
+        "value": null
+      }
+    ],
+    "pictureInfo": {
+      "windowLeftUpperPoint": "0,0",
+      "windowRightBottomPoint": "2560,1440",
+      "applicatoinTitle": "Test.xlsx - Excel",
+      "mousePoint": "254,184",
+      "action": "LEFT_CLICK",
+      "id": 22128
+    },
+    "next_action_id": 6
+  },
+  {
+    "action_id": 6,
+    "actioned_conecpt": "ExcelCell.A1",
+    "action": [
+      {
+        "type": "KEY_PRESS",
+        "value": "3"
+      }
+    ],
+    "pictureInfo": {
+      "windowLeftUpperPoint": "0,0",
+      "windowRightBottomPoint": "2560,1440",
+      "applicatoinTitle": "Test.xlsx - Excel",
+      "mousePoint": null,
+      "action": "KEY_PRESS",
+      "id": 23668
+    },
+    "next_action_id": 7
+  },
+  {
+    "action_id": 7,
+    "actioned_conecpt": "ExcelCell.A1",
+    "action": [
+      {
+        "type": "KEY_PRESS",
+        "value": "Down"
+      }
+    ],
+    "pictureInfo": {
+      "windowLeftUpperPoint": "0,0",
+      "windowRightBottomPoint": "2560,1440",
+      "applicatoinTitle": "Test.xlsx - Excel",
+      "mousePoint": null,
+      "action": "KEY_PRESS",
+      "id": 28024
+    },
+    "next_action_id": 8
+  },
+  {
+    "action_id": 8,
+    "actioned_conecpt": "ExcelCell.A1",
+    "action": [
+      {
+        "type": "KEY_PRESS",
+        "value": "4"
+      }
+    ],
+    "pictureInfo": {
+      "windowLeftUpperPoint": "0,0",
+      "windowRightBottomPoint": "2560,1440",
+      "applicatoinTitle": "Test.xlsx - Excel",
+      "mousePoint": null,
+      "action": "KEY_PRESS",
+      "id": 28492
+    },
+    "next_action_id": 9
+  },
+  {
+    "action_id": 9,
+    "actioned_conecpt": "ExcelCell.A1",
+    "action": [
+      {
+        "type": "KEY_DOWN",
+        "value": "Ctrl"
+      },
+      {
+        "type": "KEY_PRESS",
+        "value": "S"
+      },
+      {
+        "type": "KEY_UP",
+        "value": "Ctrl"
+      }
+    ],
+    "pictureInfo": {
+      "windowLeftUpperPoint": "0,0",
+      "windowRightBottomPoint": "2560,1440",
+      "applicatoinTitle": "Test.xlsx - Excel",
+      "mousePoint": null,
+      "action": "KEY_PRESS",
+      "id": 29620
+    },
+    "next_action_id": 0
+  }
+]
+```
+**Note:**  The `actioned_conecpt` is assumed to be "ExcelCell.A1" based on the video showing interaction within a single cell.  If the actions involve multiple cells, this field would need to be adjusted accordingly.  Also, the timestamp information is not directly used in the JSON structure, but it could be added if needed for further analysis.</t>
   </si>
 </sst>
 </file>
@@ -2683,13 +3294,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -3234,7 +3845,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3326,9 +3937,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3694,12 +4302,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V71"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -3762,22 +4370,22 @@
         <v>10</v>
       </c>
       <c r="P1" s="10"/>
-      <c r="Q1" s="39" t="s">
+      <c r="Q1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="40" t="s">
+      <c r="R1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="40" t="s">
+      <c r="S1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="U1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="40" t="s">
+      <c r="V1" s="39" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3818,12 +4426,12 @@
       <c r="P2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
     </row>
     <row r="3" ht="330" spans="1:22">
       <c r="A3" s="16" t="s">
@@ -3874,13 +4482,13 @@
       <c r="P3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-    </row>
-    <row r="4" ht="105" spans="1:22">
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+    </row>
+    <row r="4" ht="60" spans="1:22">
       <c r="A4" s="16" t="s">
         <v>30</v>
       </c>
@@ -3929,17 +4537,17 @@
       <c r="P4" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="R4" s="43">
+      <c r="R4" s="42">
         <v>1</v>
       </c>
-      <c r="S4" s="43"/>
-      <c r="T4" s="43"/>
-      <c r="U4" s="43"/>
-      <c r="V4" s="43">
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="120" spans="1:22">
+    <row r="5" ht="105" spans="1:22">
       <c r="A5" s="16" t="s">
         <v>38</v>
       </c>
@@ -3988,19 +4596,19 @@
       <c r="P5" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="R5" s="43">
+      <c r="R5" s="42">
         <v>1</v>
       </c>
-      <c r="S5" s="43">
+      <c r="S5" s="42">
         <v>1</v>
       </c>
-      <c r="T5" s="43">
+      <c r="T5" s="42">
         <v>1</v>
       </c>
-      <c r="U5" s="43">
+      <c r="U5" s="42">
         <v>1</v>
       </c>
-      <c r="V5" s="43">
+      <c r="V5" s="42">
         <v>1</v>
       </c>
     </row>
@@ -4053,13 +4661,13 @@
       <c r="P6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="43"/>
-      <c r="V6" s="43"/>
-    </row>
-    <row r="7" ht="120" spans="1:22">
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+    </row>
+    <row r="7" ht="60" spans="1:22">
       <c r="A7" s="16" t="s">
         <v>30</v>
       </c>
@@ -4111,17 +4719,17 @@
       <c r="Q7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="R7" s="43">
+      <c r="R7" s="42">
         <v>1</v>
       </c>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="43"/>
-      <c r="V7" s="43">
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="120" spans="1:22">
+    <row r="8" ht="105" spans="1:22">
       <c r="A8" s="16" t="s">
         <v>38</v>
       </c>
@@ -4173,19 +4781,19 @@
       <c r="Q8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R8" s="43">
+      <c r="R8" s="42">
         <v>1</v>
       </c>
-      <c r="S8" s="43">
+      <c r="S8" s="42">
         <v>1</v>
       </c>
-      <c r="T8" s="43">
+      <c r="T8" s="42">
         <v>1</v>
       </c>
-      <c r="U8" s="43">
+      <c r="U8" s="42">
         <v>1</v>
       </c>
-      <c r="V8" s="43">
+      <c r="V8" s="42">
         <v>1</v>
       </c>
     </row>
@@ -4238,13 +4846,13 @@
       <c r="P9" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="43"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="43"/>
-      <c r="V9" s="43"/>
-    </row>
-    <row r="10" ht="225" spans="1:22">
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+    </row>
+    <row r="10" ht="75" spans="1:22">
       <c r="A10" s="16" t="s">
         <v>30</v>
       </c>
@@ -4293,17 +4901,17 @@
       <c r="P10" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="R10" s="43">
+      <c r="R10" s="42">
         <v>1</v>
       </c>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="43"/>
-      <c r="V10" s="43">
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="11" ht="150" spans="1:22">
+    <row r="11" ht="90" spans="1:22">
       <c r="A11" s="16" t="s">
         <v>38</v>
       </c>
@@ -4352,21 +4960,21 @@
       <c r="P11" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="R11" s="43">
+      <c r="R11" s="42">
         <v>1</v>
       </c>
-      <c r="S11" s="43">
+      <c r="S11" s="42">
         <v>1</v>
       </c>
-      <c r="T11" s="43">
+      <c r="T11" s="42">
         <v>1</v>
       </c>
-      <c r="U11" s="43">
+      <c r="U11" s="42">
         <v>1</v>
       </c>
-      <c r="V11" s="43"/>
-    </row>
-    <row r="12" ht="105" spans="1:22">
+      <c r="V11" s="42"/>
+    </row>
+    <row r="12" ht="75" spans="1:22">
       <c r="A12" s="16" t="s">
         <v>66</v>
       </c>
@@ -4415,19 +5023,19 @@
       <c r="P12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="R12" s="43">
+      <c r="R12" s="42">
         <v>1</v>
       </c>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43">
+      <c r="S12" s="42"/>
+      <c r="T12" s="42">
         <v>1</v>
       </c>
-      <c r="U12" s="43"/>
-      <c r="V12" s="43">
+      <c r="U12" s="42"/>
+      <c r="V12" s="42">
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="165" spans="1:22">
+    <row r="13" ht="90" spans="1:22">
       <c r="A13" s="16" t="s">
         <v>74</v>
       </c>
@@ -4476,19 +5084,19 @@
       <c r="P13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="R13" s="43">
+      <c r="R13" s="42">
         <v>1</v>
       </c>
-      <c r="S13" s="43">
+      <c r="S13" s="42">
         <v>1</v>
       </c>
-      <c r="T13" s="43">
+      <c r="T13" s="42">
         <v>1</v>
       </c>
-      <c r="U13" s="43">
+      <c r="U13" s="42">
         <v>1</v>
       </c>
-      <c r="V13" s="43">
+      <c r="V13" s="42">
         <v>1</v>
       </c>
     </row>
@@ -4521,8 +5129,8 @@
       <c r="J14" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
       <c r="M14" s="22" t="s">
         <v>82</v>
       </c>
@@ -4535,11 +5143,11 @@
       <c r="P14" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="43"/>
-      <c r="U14" s="43"/>
-      <c r="V14" s="43">
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42">
         <v>1</v>
       </c>
     </row>
@@ -4566,24 +5174,24 @@
       <c r="H15" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="35"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="37" t="s">
+      <c r="I15" s="34"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="P15" s="38" t="s">
+      <c r="P15" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="45"/>
-      <c r="T15" s="45"/>
-      <c r="U15" s="45"/>
-      <c r="V15" s="45">
+      <c r="Q15" s="43"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="44">
         <v>1</v>
       </c>
     </row>
@@ -4624,24 +5232,24 @@
       <c r="L16" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="M16" s="36" t="s">
+      <c r="M16" s="35" t="s">
         <v>95</v>
       </c>
       <c r="N16" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="O16" s="36" t="s">
+      <c r="O16" s="35" t="s">
         <v>96</v>
       </c>
       <c r="P16" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="36"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="36"/>
-      <c r="U16" s="36"/>
-      <c r="V16" s="36"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="105" spans="1:22">
       <c r="A17" s="16" t="s">
@@ -4674,29 +5282,29 @@
       <c r="J17" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="32" t="s">
+      <c r="K17" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="L17" s="32" t="s">
+      <c r="L17" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="32" t="s">
+      <c r="M17" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="N17" s="32" t="s">
+      <c r="N17" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="O17" s="32" t="s">
+      <c r="O17" s="31" t="s">
         <v>105</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="R17" s="43"/>
-      <c r="S17" s="43"/>
-      <c r="T17" s="43"/>
-      <c r="U17" s="43"/>
-      <c r="V17" s="43"/>
+        <v>24</v>
+      </c>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="409.5" spans="1:22">
       <c r="A18" s="16" t="s">
@@ -4729,40 +5337,68 @@
       <c r="J18" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="32"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="27" customHeight="1" spans="1:22">
-      <c r="A19" s="30"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
+      <c r="K18" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="N18" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="P18" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="409.5" spans="1:22">
+      <c r="A19" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="H19" s="18" t="s">
+        <v>28</v>
+      </c>
       <c r="I19" s="19"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="32"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="27" customHeight="1" spans="1:22">
       <c r="A20" s="30"/>
@@ -4774,18 +5410,18 @@
       <c r="G20" s="23"/>
       <c r="H20" s="24"/>
       <c r="I20" s="19"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="27" customHeight="1" spans="1:22">
       <c r="A21" s="30"/>
@@ -4797,18 +5433,18 @@
       <c r="G21" s="19"/>
       <c r="H21" s="24"/>
       <c r="I21" s="19"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="32"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="43"/>
-      <c r="T21" s="43"/>
-      <c r="U21" s="43"/>
-      <c r="V21" s="43"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="27" customHeight="1" spans="1:22">
       <c r="A22" s="30"/>
@@ -4820,18 +5456,18 @@
       <c r="G22" s="19"/>
       <c r="H22" s="24"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="32"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="32"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="32"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="43"/>
-      <c r="T22" s="43"/>
-      <c r="U22" s="43"/>
-      <c r="V22" s="43"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="31"/>
+      <c r="R22" s="42"/>
+      <c r="S22" s="42"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="42"/>
+      <c r="V22" s="42"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="27" customHeight="1" spans="1:22">
       <c r="A23" s="30"/>
@@ -4850,11 +5486,11 @@
       <c r="N23" s="23"/>
       <c r="O23" s="23"/>
       <c r="P23" s="23"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="43"/>
-      <c r="T23" s="43"/>
-      <c r="U23" s="43"/>
-      <c r="V23" s="43"/>
+      <c r="R23" s="42"/>
+      <c r="S23" s="42"/>
+      <c r="T23" s="42"/>
+      <c r="U23" s="42"/>
+      <c r="V23" s="42"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="27" customHeight="1" spans="1:22">
       <c r="A24" s="30"/>
@@ -4864,7 +5500,7 @@
       <c r="E24" s="30"/>
       <c r="F24" s="24"/>
       <c r="G24" s="19"/>
-      <c r="H24" s="32"/>
+      <c r="H24" s="31"/>
       <c r="I24" s="19"/>
       <c r="J24" s="23"/>
       <c r="K24" s="23"/>
@@ -4873,11 +5509,11 @@
       <c r="N24" s="23"/>
       <c r="O24" s="23"/>
       <c r="P24" s="23"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="43"/>
-      <c r="T24" s="43"/>
-      <c r="U24" s="43"/>
-      <c r="V24" s="43"/>
+      <c r="R24" s="42"/>
+      <c r="S24" s="42"/>
+      <c r="T24" s="42"/>
+      <c r="U24" s="42"/>
+      <c r="V24" s="42"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="27" customHeight="1" spans="1:22">
       <c r="A25" s="30"/>
@@ -4896,11 +5532,11 @@
       <c r="N25" s="23"/>
       <c r="O25" s="23"/>
       <c r="P25" s="23"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="43"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="43"/>
-      <c r="V25" s="43"/>
+      <c r="R25" s="42"/>
+      <c r="S25" s="42"/>
+      <c r="T25" s="42"/>
+      <c r="U25" s="42"/>
+      <c r="V25" s="42"/>
     </row>
     <row r="26" s="2" customFormat="1" spans="1:22">
       <c r="A26" s="30"/>
@@ -4912,18 +5548,18 @@
       <c r="G26" s="23"/>
       <c r="H26" s="23"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="32"/>
-      <c r="K26" s="32"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="32"/>
-      <c r="P26" s="32"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="43"/>
-      <c r="T26" s="43"/>
-      <c r="U26" s="43"/>
-      <c r="V26" s="43"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="31"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="31"/>
+      <c r="R26" s="42"/>
+      <c r="S26" s="42"/>
+      <c r="T26" s="42"/>
+      <c r="U26" s="42"/>
+      <c r="V26" s="42"/>
     </row>
     <row r="27" s="2" customFormat="1" spans="1:22">
       <c r="A27" s="30"/>
@@ -4935,18 +5571,18 @@
       <c r="G27" s="23"/>
       <c r="H27" s="23"/>
       <c r="I27" s="19"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="32"/>
-      <c r="L27" s="32"/>
-      <c r="M27" s="32"/>
-      <c r="N27" s="32"/>
-      <c r="O27" s="32"/>
-      <c r="P27" s="32"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="31"/>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="31"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="31"/>
+      <c r="R27" s="42"/>
+      <c r="S27" s="42"/>
+      <c r="T27" s="42"/>
+      <c r="U27" s="42"/>
+      <c r="V27" s="42"/>
     </row>
     <row r="28" s="2" customFormat="1" spans="1:22">
       <c r="A28" s="30"/>
@@ -4958,18 +5594,18 @@
       <c r="G28" s="23"/>
       <c r="H28" s="23"/>
       <c r="I28" s="19"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="32"/>
-      <c r="L28" s="32"/>
-      <c r="M28" s="32"/>
-      <c r="N28" s="32"/>
-      <c r="O28" s="32"/>
-      <c r="P28" s="32"/>
-      <c r="R28" s="43"/>
-      <c r="S28" s="43"/>
-      <c r="T28" s="43"/>
-      <c r="U28" s="43"/>
-      <c r="V28" s="43"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="R28" s="42"/>
+      <c r="S28" s="42"/>
+      <c r="T28" s="42"/>
+      <c r="U28" s="42"/>
+      <c r="V28" s="42"/>
     </row>
     <row r="29" s="2" customFormat="1" spans="1:22">
       <c r="A29" s="30"/>
@@ -4981,18 +5617,18 @@
       <c r="G29" s="23"/>
       <c r="H29" s="23"/>
       <c r="I29" s="19"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="32"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="32"/>
-      <c r="P29" s="32"/>
-      <c r="R29" s="43"/>
-      <c r="S29" s="43"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="43"/>
-      <c r="V29" s="43"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="R29" s="42"/>
+      <c r="S29" s="42"/>
+      <c r="T29" s="42"/>
+      <c r="U29" s="42"/>
+      <c r="V29" s="42"/>
     </row>
     <row r="30" s="2" customFormat="1" spans="1:22">
       <c r="A30" s="30"/>
@@ -5004,18 +5640,18 @@
       <c r="G30" s="23"/>
       <c r="H30" s="23"/>
       <c r="I30" s="19"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="R30" s="43"/>
-      <c r="S30" s="43"/>
-      <c r="T30" s="43"/>
-      <c r="U30" s="43"/>
-      <c r="V30" s="43"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="R30" s="42"/>
+      <c r="S30" s="42"/>
+      <c r="T30" s="42"/>
+      <c r="U30" s="42"/>
+      <c r="V30" s="42"/>
     </row>
     <row r="31" s="2" customFormat="1" spans="1:22">
       <c r="A31" s="30"/>
@@ -5027,18 +5663,18 @@
       <c r="G31" s="23"/>
       <c r="H31" s="23"/>
       <c r="I31" s="19"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="32"/>
-      <c r="L31" s="32"/>
-      <c r="M31" s="32"/>
-      <c r="N31" s="32"/>
-      <c r="O31" s="32"/>
-      <c r="P31" s="32"/>
-      <c r="R31" s="43"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="43"/>
-      <c r="U31" s="43"/>
-      <c r="V31" s="43"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="31"/>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="31"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="31"/>
+      <c r="R31" s="42"/>
+      <c r="S31" s="42"/>
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
     </row>
     <row r="32" s="2" customFormat="1" spans="1:22">
       <c r="A32" s="30"/>
@@ -5050,18 +5686,18 @@
       <c r="G32" s="23"/>
       <c r="H32" s="23"/>
       <c r="I32" s="19"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="32"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
-      <c r="O32" s="32"/>
-      <c r="P32" s="32"/>
-      <c r="R32" s="43"/>
-      <c r="S32" s="43"/>
-      <c r="T32" s="43"/>
-      <c r="U32" s="43"/>
-      <c r="V32" s="43"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="31"/>
+      <c r="R32" s="42"/>
+      <c r="S32" s="42"/>
+      <c r="T32" s="42"/>
+      <c r="U32" s="42"/>
+      <c r="V32" s="42"/>
     </row>
     <row r="33" s="2" customFormat="1" spans="1:22">
       <c r="A33" s="30"/>
@@ -5073,18 +5709,18 @@
       <c r="G33" s="23"/>
       <c r="H33" s="23"/>
       <c r="I33" s="19"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="32"/>
-      <c r="O33" s="32"/>
-      <c r="P33" s="32"/>
-      <c r="R33" s="43"/>
-      <c r="S33" s="43"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="43"/>
-      <c r="V33" s="43"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="31"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="31"/>
+      <c r="R33" s="42"/>
+      <c r="S33" s="42"/>
+      <c r="T33" s="42"/>
+      <c r="U33" s="42"/>
+      <c r="V33" s="42"/>
     </row>
     <row r="34" s="2" customFormat="1" spans="1:22">
       <c r="A34" s="30"/>
@@ -5096,18 +5732,18 @@
       <c r="G34" s="23"/>
       <c r="H34" s="23"/>
       <c r="I34" s="19"/>
-      <c r="J34" s="32"/>
-      <c r="K34" s="32"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
-      <c r="O34" s="32"/>
-      <c r="P34" s="32"/>
-      <c r="R34" s="43"/>
-      <c r="S34" s="43"/>
-      <c r="T34" s="43"/>
-      <c r="U34" s="43"/>
-      <c r="V34" s="43"/>
+      <c r="J34" s="31"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="31"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="31"/>
+      <c r="R34" s="42"/>
+      <c r="S34" s="42"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="42"/>
+      <c r="V34" s="42"/>
     </row>
     <row r="35" s="2" customFormat="1" spans="1:22">
       <c r="A35" s="16"/>
@@ -5119,18 +5755,18 @@
       <c r="G35" s="23"/>
       <c r="H35" s="23"/>
       <c r="I35" s="19"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="32"/>
-      <c r="O35" s="32"/>
-      <c r="P35" s="32"/>
-      <c r="R35" s="43"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="43"/>
-      <c r="U35" s="43"/>
-      <c r="V35" s="43"/>
+      <c r="J35" s="31"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="31"/>
+      <c r="O35" s="31"/>
+      <c r="P35" s="31"/>
+      <c r="R35" s="42"/>
+      <c r="S35" s="42"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="42"/>
+      <c r="V35" s="42"/>
     </row>
     <row r="36" s="2" customFormat="1" spans="1:22">
       <c r="A36" s="16"/>
@@ -5138,22 +5774,22 @@
       <c r="C36" s="16"/>
       <c r="D36" s="29"/>
       <c r="E36" s="19"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
       <c r="H36" s="24"/>
       <c r="I36" s="19"/>
-      <c r="J36" s="32"/>
-      <c r="K36" s="32"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
-      <c r="O36" s="32"/>
-      <c r="P36" s="32"/>
-      <c r="R36" s="43"/>
-      <c r="S36" s="43"/>
-      <c r="T36" s="43"/>
-      <c r="U36" s="43"/>
-      <c r="V36" s="43"/>
+      <c r="J36" s="31"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="31"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="31"/>
+      <c r="R36" s="42"/>
+      <c r="S36" s="42"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="42"/>
+      <c r="V36" s="42"/>
     </row>
     <row r="37" s="2" customFormat="1" spans="1:22">
       <c r="A37" s="16"/>
@@ -5165,18 +5801,18 @@
       <c r="G37" s="23"/>
       <c r="H37" s="23"/>
       <c r="I37" s="19"/>
-      <c r="J37" s="32"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
-      <c r="O37" s="32"/>
-      <c r="P37" s="32"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="43"/>
-      <c r="V37" s="43"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="31"/>
+      <c r="O37" s="31"/>
+      <c r="P37" s="31"/>
+      <c r="R37" s="42"/>
+      <c r="S37" s="42"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="42"/>
+      <c r="V37" s="42"/>
     </row>
     <row r="38" s="2" customFormat="1" spans="1:22">
       <c r="A38" s="16"/>
@@ -5188,18 +5824,18 @@
       <c r="G38" s="23"/>
       <c r="H38" s="23"/>
       <c r="I38" s="19"/>
-      <c r="J38" s="32"/>
-      <c r="K38" s="32"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
-      <c r="O38" s="32"/>
-      <c r="P38" s="32"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
+      <c r="J38" s="31"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="31"/>
+      <c r="O38" s="31"/>
+      <c r="P38" s="31"/>
+      <c r="R38" s="42"/>
+      <c r="S38" s="42"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="42"/>
+      <c r="V38" s="42"/>
     </row>
     <row r="39" s="2" customFormat="1" spans="1:22">
       <c r="A39" s="16"/>
@@ -5211,18 +5847,18 @@
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
       <c r="I39" s="19"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="32"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="32"/>
-      <c r="O39" s="32"/>
-      <c r="P39" s="32"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="43"/>
+      <c r="J39" s="31"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="31"/>
+      <c r="O39" s="31"/>
+      <c r="P39" s="31"/>
+      <c r="R39" s="42"/>
+      <c r="S39" s="42"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="42"/>
+      <c r="V39" s="42"/>
     </row>
     <row r="40" s="2" customFormat="1" spans="1:22">
       <c r="A40" s="16"/>
@@ -5234,18 +5870,18 @@
       <c r="G40" s="23"/>
       <c r="H40" s="23"/>
       <c r="I40" s="19"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="32"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="32"/>
-      <c r="O40" s="32"/>
-      <c r="P40" s="32"/>
-      <c r="R40" s="43"/>
-      <c r="S40" s="43"/>
-      <c r="T40" s="43"/>
-      <c r="U40" s="43"/>
-      <c r="V40" s="43"/>
+      <c r="J40" s="31"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="R40" s="42"/>
+      <c r="S40" s="42"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="42"/>
+      <c r="V40" s="42"/>
     </row>
     <row r="41" s="2" customFormat="1" spans="1:22">
       <c r="A41" s="16"/>
@@ -5257,18 +5893,18 @@
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
       <c r="I41" s="19"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="32"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
+      <c r="O41" s="31"/>
+      <c r="P41" s="31"/>
+      <c r="R41" s="42"/>
+      <c r="S41" s="42"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="42"/>
+      <c r="V41" s="42"/>
     </row>
     <row r="42" s="2" customFormat="1" spans="1:22">
       <c r="A42" s="16"/>
@@ -5280,18 +5916,18 @@
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="19"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-      <c r="P42" s="32"/>
-      <c r="R42" s="43"/>
-      <c r="S42" s="43"/>
-      <c r="T42" s="43"/>
-      <c r="U42" s="43"/>
-      <c r="V42" s="43"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="R42" s="42"/>
+      <c r="S42" s="42"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="42"/>
+      <c r="V42" s="42"/>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:22">
       <c r="A43" s="16"/>
@@ -5303,18 +5939,18 @@
       <c r="G43" s="23"/>
       <c r="H43" s="23"/>
       <c r="I43" s="19"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="32"/>
-      <c r="R43" s="43"/>
-      <c r="S43" s="43"/>
-      <c r="T43" s="43"/>
-      <c r="U43" s="43"/>
-      <c r="V43" s="43"/>
+      <c r="J43" s="31"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="31"/>
+      <c r="O43" s="31"/>
+      <c r="P43" s="31"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="42"/>
     </row>
     <row r="44" s="2" customFormat="1" spans="1:22">
       <c r="A44" s="16"/>
@@ -5326,18 +5962,18 @@
       <c r="G44" s="23"/>
       <c r="H44" s="23"/>
       <c r="I44" s="19"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="32"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="32"/>
-      <c r="O44" s="32"/>
-      <c r="P44" s="32"/>
-      <c r="R44" s="43"/>
-      <c r="S44" s="43"/>
-      <c r="T44" s="43"/>
-      <c r="U44" s="43"/>
-      <c r="V44" s="43"/>
+      <c r="J44" s="31"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="31"/>
+      <c r="O44" s="31"/>
+      <c r="P44" s="31"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="42"/>
     </row>
     <row r="45" s="2" customFormat="1" spans="1:22">
       <c r="A45" s="16"/>
@@ -5349,18 +5985,18 @@
       <c r="G45" s="23"/>
       <c r="H45" s="23"/>
       <c r="I45" s="19"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
-      <c r="O45" s="32"/>
-      <c r="P45" s="32"/>
-      <c r="R45" s="43"/>
-      <c r="S45" s="43"/>
-      <c r="T45" s="43"/>
-      <c r="U45" s="43"/>
-      <c r="V45" s="43"/>
+      <c r="J45" s="31"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="31"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="31"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="42"/>
+      <c r="U45" s="42"/>
+      <c r="V45" s="42"/>
     </row>
     <row r="46" s="2" customFormat="1" spans="1:22">
       <c r="A46" s="16"/>
@@ -5372,18 +6008,18 @@
       <c r="G46" s="23"/>
       <c r="H46" s="23"/>
       <c r="I46" s="19"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="32"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
-      <c r="P46" s="32"/>
-      <c r="R46" s="43"/>
-      <c r="S46" s="43"/>
-      <c r="T46" s="43"/>
-      <c r="U46" s="43"/>
-      <c r="V46" s="43"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="31"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="31"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="42"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="42"/>
     </row>
     <row r="47" s="2" customFormat="1" spans="1:22">
       <c r="A47" s="16"/>
@@ -5395,18 +6031,18 @@
       <c r="G47" s="23"/>
       <c r="H47" s="23"/>
       <c r="I47" s="19"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="32"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="32"/>
-      <c r="O47" s="32"/>
-      <c r="P47" s="32"/>
-      <c r="R47" s="43"/>
-      <c r="S47" s="43"/>
-      <c r="T47" s="43"/>
-      <c r="U47" s="43"/>
-      <c r="V47" s="43"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="31"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="31"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="42"/>
     </row>
     <row r="48" s="2" customFormat="1" spans="1:22">
       <c r="A48" s="16"/>
@@ -5418,18 +6054,18 @@
       <c r="G48" s="23"/>
       <c r="H48" s="23"/>
       <c r="I48" s="19"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="32"/>
-      <c r="L48" s="32"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="32"/>
-      <c r="O48" s="32"/>
-      <c r="P48" s="32"/>
-      <c r="R48" s="43"/>
-      <c r="S48" s="43"/>
-      <c r="T48" s="43"/>
-      <c r="U48" s="43"/>
-      <c r="V48" s="43"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="31"/>
+      <c r="L48" s="31"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="31"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="31"/>
+      <c r="R48" s="42"/>
+      <c r="S48" s="42"/>
+      <c r="T48" s="42"/>
+      <c r="U48" s="42"/>
+      <c r="V48" s="42"/>
     </row>
     <row r="49" s="2" customFormat="1" spans="1:22">
       <c r="A49" s="16"/>
@@ -5441,18 +6077,18 @@
       <c r="G49" s="23"/>
       <c r="H49" s="23"/>
       <c r="I49" s="19"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="32"/>
-      <c r="O49" s="32"/>
-      <c r="P49" s="32"/>
-      <c r="R49" s="43"/>
-      <c r="S49" s="43"/>
-      <c r="T49" s="43"/>
-      <c r="U49" s="43"/>
-      <c r="V49" s="43"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="31"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="31"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="42"/>
+      <c r="T49" s="42"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="42"/>
     </row>
     <row r="50" s="2" customFormat="1" spans="1:22">
       <c r="A50" s="16"/>
@@ -5464,18 +6100,18 @@
       <c r="G50" s="23"/>
       <c r="H50" s="23"/>
       <c r="I50" s="19"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="32"/>
-      <c r="O50" s="32"/>
-      <c r="P50" s="32"/>
-      <c r="R50" s="43"/>
-      <c r="S50" s="43"/>
-      <c r="T50" s="43"/>
-      <c r="U50" s="43"/>
-      <c r="V50" s="43"/>
+      <c r="J50" s="31"/>
+      <c r="K50" s="31"/>
+      <c r="L50" s="31"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="31"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="31"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="42"/>
+      <c r="U50" s="42"/>
+      <c r="V50" s="42"/>
     </row>
     <row r="51" s="2" customFormat="1" spans="1:22">
       <c r="A51" s="16"/>
@@ -5487,18 +6123,18 @@
       <c r="G51" s="23"/>
       <c r="H51" s="23"/>
       <c r="I51" s="19"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="32"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="32"/>
-      <c r="R51" s="43"/>
-      <c r="S51" s="43"/>
-      <c r="T51" s="43"/>
-      <c r="U51" s="43"/>
-      <c r="V51" s="43"/>
+      <c r="J51" s="31"/>
+      <c r="K51" s="31"/>
+      <c r="L51" s="31"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="31"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="31"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="42"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="42"/>
     </row>
     <row r="52" s="2" customFormat="1" spans="1:22">
       <c r="A52" s="16"/>
@@ -5510,18 +6146,18 @@
       <c r="G52" s="23"/>
       <c r="H52" s="23"/>
       <c r="I52" s="19"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="32"/>
-      <c r="L52" s="32"/>
-      <c r="M52" s="32"/>
-      <c r="N52" s="32"/>
-      <c r="O52" s="32"/>
-      <c r="P52" s="32"/>
-      <c r="R52" s="43"/>
-      <c r="S52" s="43"/>
-      <c r="T52" s="43"/>
-      <c r="U52" s="43"/>
-      <c r="V52" s="43"/>
+      <c r="J52" s="31"/>
+      <c r="K52" s="31"/>
+      <c r="L52" s="31"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="31"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="31"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="42"/>
     </row>
     <row r="53" s="2" customFormat="1" spans="1:22">
       <c r="A53" s="16"/>
@@ -5533,18 +6169,18 @@
       <c r="G53" s="23"/>
       <c r="H53" s="23"/>
       <c r="I53" s="19"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="32"/>
-      <c r="P53" s="32"/>
-      <c r="R53" s="43"/>
-      <c r="S53" s="43"/>
-      <c r="T53" s="43"/>
-      <c r="U53" s="43"/>
-      <c r="V53" s="43"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="31"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="31"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="42"/>
+      <c r="T53" s="42"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="42"/>
     </row>
     <row r="54" s="2" customFormat="1" spans="1:22">
       <c r="A54" s="16"/>
@@ -5556,11 +6192,11 @@
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
       <c r="I54" s="19"/>
-      <c r="R54" s="43"/>
-      <c r="S54" s="43"/>
-      <c r="T54" s="43"/>
-      <c r="U54" s="43"/>
-      <c r="V54" s="43"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="42"/>
     </row>
     <row r="55" s="2" customFormat="1" spans="1:22">
       <c r="A55" s="16"/>
@@ -5572,11 +6208,11 @@
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
       <c r="I55" s="19"/>
-      <c r="R55" s="43"/>
-      <c r="S55" s="43"/>
-      <c r="T55" s="43"/>
-      <c r="U55" s="43"/>
-      <c r="V55" s="43"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="42"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="42"/>
+      <c r="V55" s="42"/>
     </row>
     <row r="56" s="2" customFormat="1" spans="1:22">
       <c r="A56" s="16"/>
@@ -5587,11 +6223,11 @@
       <c r="F56" s="20"/>
       <c r="G56" s="23"/>
       <c r="H56" s="23"/>
-      <c r="R56" s="43"/>
-      <c r="S56" s="43"/>
-      <c r="T56" s="43"/>
-      <c r="U56" s="43"/>
-      <c r="V56" s="43"/>
+      <c r="R56" s="42"/>
+      <c r="S56" s="42"/>
+      <c r="T56" s="42"/>
+      <c r="U56" s="42"/>
+      <c r="V56" s="42"/>
     </row>
     <row r="57" s="2" customFormat="1" spans="1:22">
       <c r="A57" s="16"/>
@@ -5602,11 +6238,11 @@
       <c r="F57" s="20"/>
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
-      <c r="R57" s="43"/>
-      <c r="S57" s="43"/>
-      <c r="T57" s="43"/>
-      <c r="U57" s="43"/>
-      <c r="V57" s="43"/>
+      <c r="R57" s="42"/>
+      <c r="S57" s="42"/>
+      <c r="T57" s="42"/>
+      <c r="U57" s="42"/>
+      <c r="V57" s="42"/>
     </row>
     <row r="58" s="2" customFormat="1" spans="1:22">
       <c r="A58" s="16"/>
@@ -5617,11 +6253,11 @@
       <c r="F58" s="20"/>
       <c r="G58" s="23"/>
       <c r="H58" s="23"/>
-      <c r="R58" s="43"/>
-      <c r="S58" s="43"/>
-      <c r="T58" s="43"/>
-      <c r="U58" s="43"/>
-      <c r="V58" s="43"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="42"/>
+      <c r="T58" s="42"/>
+      <c r="U58" s="42"/>
+      <c r="V58" s="42"/>
     </row>
     <row r="59" s="2" customFormat="1" spans="1:22">
       <c r="A59" s="16"/>
@@ -5632,11 +6268,11 @@
       <c r="F59" s="20"/>
       <c r="G59" s="23"/>
       <c r="H59" s="23"/>
-      <c r="R59" s="43"/>
-      <c r="S59" s="43"/>
-      <c r="T59" s="43"/>
-      <c r="U59" s="43"/>
-      <c r="V59" s="43"/>
+      <c r="R59" s="42"/>
+      <c r="S59" s="42"/>
+      <c r="T59" s="42"/>
+      <c r="U59" s="42"/>
+      <c r="V59" s="42"/>
     </row>
     <row r="60" s="2" customFormat="1" spans="1:22">
       <c r="A60" s="16"/>
@@ -5647,11 +6283,11 @@
       <c r="F60" s="20"/>
       <c r="G60" s="23"/>
       <c r="H60" s="23"/>
-      <c r="R60" s="43"/>
-      <c r="S60" s="43"/>
-      <c r="T60" s="43"/>
-      <c r="U60" s="43"/>
-      <c r="V60" s="43"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="42"/>
+      <c r="V60" s="42"/>
     </row>
     <row r="61" s="2" customFormat="1" spans="1:22">
       <c r="A61" s="16"/>
@@ -5662,11 +6298,11 @@
       <c r="F61" s="20"/>
       <c r="G61" s="23"/>
       <c r="H61" s="23"/>
-      <c r="R61" s="43"/>
-      <c r="S61" s="43"/>
-      <c r="T61" s="43"/>
-      <c r="U61" s="43"/>
-      <c r="V61" s="43"/>
+      <c r="R61" s="42"/>
+      <c r="S61" s="42"/>
+      <c r="T61" s="42"/>
+      <c r="U61" s="42"/>
+      <c r="V61" s="42"/>
     </row>
     <row r="62" s="2" customFormat="1" spans="1:22">
       <c r="A62" s="16"/>
@@ -5677,11 +6313,11 @@
       <c r="F62" s="20"/>
       <c r="G62" s="23"/>
       <c r="H62" s="23"/>
-      <c r="R62" s="43"/>
-      <c r="S62" s="43"/>
-      <c r="T62" s="43"/>
-      <c r="U62" s="43"/>
-      <c r="V62" s="43"/>
+      <c r="R62" s="42"/>
+      <c r="S62" s="42"/>
+      <c r="T62" s="42"/>
+      <c r="U62" s="42"/>
+      <c r="V62" s="42"/>
     </row>
     <row r="63" s="2" customFormat="1" spans="1:22">
       <c r="A63" s="16"/>
@@ -5692,11 +6328,11 @@
       <c r="F63" s="20"/>
       <c r="G63" s="23"/>
       <c r="H63" s="23"/>
-      <c r="R63" s="43"/>
-      <c r="S63" s="43"/>
-      <c r="T63" s="43"/>
-      <c r="U63" s="43"/>
-      <c r="V63" s="43"/>
+      <c r="R63" s="42"/>
+      <c r="S63" s="42"/>
+      <c r="T63" s="42"/>
+      <c r="U63" s="42"/>
+      <c r="V63" s="42"/>
     </row>
     <row r="64" s="2" customFormat="1" spans="1:22">
       <c r="A64" s="16"/>
@@ -5705,13 +6341,13 @@
       <c r="D64" s="29"/>
       <c r="E64" s="19"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="R64" s="43"/>
-      <c r="S64" s="43"/>
-      <c r="T64" s="43"/>
-      <c r="U64" s="43"/>
-      <c r="V64" s="43"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="33"/>
+      <c r="R64" s="42"/>
+      <c r="S64" s="42"/>
+      <c r="T64" s="42"/>
+      <c r="U64" s="42"/>
+      <c r="V64" s="42"/>
     </row>
     <row r="65" s="2" customFormat="1" spans="1:22">
       <c r="A65" s="16"/>
@@ -5720,13 +6356,13 @@
       <c r="D65" s="29"/>
       <c r="E65" s="19"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="R65" s="43"/>
-      <c r="S65" s="43"/>
-      <c r="T65" s="43"/>
-      <c r="U65" s="43"/>
-      <c r="V65" s="43"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="33"/>
+      <c r="R65" s="42"/>
+      <c r="S65" s="42"/>
+      <c r="T65" s="42"/>
+      <c r="U65" s="42"/>
+      <c r="V65" s="42"/>
     </row>
     <row r="66" s="2" customFormat="1" spans="1:22">
       <c r="A66" s="16"/>
@@ -5737,11 +6373,11 @@
       <c r="F66" s="20"/>
       <c r="G66" s="23"/>
       <c r="H66" s="23"/>
-      <c r="R66" s="43"/>
-      <c r="S66" s="43"/>
-      <c r="T66" s="43"/>
-      <c r="U66" s="43"/>
-      <c r="V66" s="43"/>
+      <c r="R66" s="42"/>
+      <c r="S66" s="42"/>
+      <c r="T66" s="42"/>
+      <c r="U66" s="42"/>
+      <c r="V66" s="42"/>
     </row>
     <row r="67" s="2" customFormat="1" spans="1:22">
       <c r="A67" s="16"/>
@@ -5752,11 +6388,11 @@
       <c r="F67" s="20"/>
       <c r="G67" s="23"/>
       <c r="H67" s="23"/>
-      <c r="R67" s="43"/>
-      <c r="S67" s="43"/>
-      <c r="T67" s="43"/>
-      <c r="U67" s="43"/>
-      <c r="V67" s="43"/>
+      <c r="R67" s="42"/>
+      <c r="S67" s="42"/>
+      <c r="T67" s="42"/>
+      <c r="U67" s="42"/>
+      <c r="V67" s="42"/>
     </row>
     <row r="68" s="2" customFormat="1" spans="1:22">
       <c r="A68" s="16"/>
@@ -5767,11 +6403,11 @@
       <c r="F68" s="20"/>
       <c r="G68" s="23"/>
       <c r="H68" s="23"/>
-      <c r="R68" s="43"/>
-      <c r="S68" s="43"/>
-      <c r="T68" s="43"/>
-      <c r="U68" s="43"/>
-      <c r="V68" s="43"/>
+      <c r="R68" s="42"/>
+      <c r="S68" s="42"/>
+      <c r="T68" s="42"/>
+      <c r="U68" s="42"/>
+      <c r="V68" s="42"/>
     </row>
     <row r="69" s="2" customFormat="1" spans="1:22">
       <c r="A69" s="16"/>
@@ -5782,37 +6418,36 @@
       <c r="F69" s="20"/>
       <c r="G69" s="23"/>
       <c r="H69" s="23"/>
-      <c r="R69" s="43"/>
-      <c r="S69" s="43"/>
-      <c r="T69" s="43"/>
-      <c r="U69" s="43"/>
-      <c r="V69" s="43"/>
+      <c r="R69" s="42"/>
+      <c r="S69" s="42"/>
+      <c r="T69" s="42"/>
+      <c r="U69" s="42"/>
+      <c r="V69" s="42"/>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="46"/>
-      <c r="B70" s="46"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="46"/>
-      <c r="E70" s="46"/>
-      <c r="F70" s="46"/>
-      <c r="G70" s="47"/>
-      <c r="H70" s="47"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="48"/>
-      <c r="K70" s="48"/>
-      <c r="L70" s="48"/>
-      <c r="M70" s="48"/>
-      <c r="N70" s="48"/>
-      <c r="O70" s="48"/>
-      <c r="P70" s="48"/>
-      <c r="Q70" s="48"/>
-      <c r="R70" s="49"/>
-      <c r="S70" s="49"/>
-      <c r="T70" s="49"/>
-      <c r="U70" s="49"/>
-      <c r="V70" s="49"/>
-    </row>
-    <row r="71" ht="13.5"/>
+      <c r="A70" s="45"/>
+      <c r="B70" s="45"/>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45"/>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+      <c r="G70" s="46"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="47"/>
+      <c r="J70" s="47"/>
+      <c r="K70" s="47"/>
+      <c r="L70" s="47"/>
+      <c r="M70" s="47"/>
+      <c r="N70" s="47"/>
+      <c r="O70" s="47"/>
+      <c r="P70" s="47"/>
+      <c r="Q70" s="47"/>
+      <c r="R70" s="48"/>
+      <c r="S70" s="48"/>
+      <c r="T70" s="48"/>
+      <c r="U70" s="48"/>
+      <c r="V70" s="48"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
     <mergeCell ref="G1:H1"/>
